--- a/sample/SQL.xlsx
+++ b/sample/SQL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECC1375-1AE9-4211-92AA-6758F9B3EEAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C038697E-104F-44AE-B43D-6FD3803C3AB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="04.Bank" sheetId="8" r:id="rId9"/>
     <sheet name="05.ErrorCd" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="796">
   <si>
     <t>CntryId,</t>
   </si>
@@ -2687,9 +2687,6 @@
   </si>
   <si>
     <t>LimitByCurQuotation</t>
-  </si>
-  <si>
-    <t>LimitByCurQuotation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2713,305 +2710,383 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>500000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한국주식 당일 상한가초과</t>
-  </si>
-  <si>
-    <t>한국주식 당일 하한가초과</t>
+    <t>한국주식 전일 상한가초과</t>
+  </si>
+  <si>
+    <t>한국주식 전일 거래대금 미달</t>
+  </si>
+  <si>
+    <t>투자주의환기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자위험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construction-투자위험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자주의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construction-투자주의환기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt10017-우선주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 값유행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LossCutCustoms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LossCut Defualt 고객 설정가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnTypeOfShortOrderCustoms</t>
+  </si>
+  <si>
+    <t>(0023)공매매 Close 시 거래금 반환방식 고객 설정가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0025)OverNight 초과 부분 자동Close시 Position 처리순서 고객 설정가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value3,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value4,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffcDays,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseBrrwType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전PostionClose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverNight초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미 시행 Open Order 최소처리,전Postion 반대매매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverNig초과 부분 반대매매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brrw의 Position Close 시 처리 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnTypeOfShortOrder</t>
+  </si>
+  <si>
+    <t>ReturnTypeOfShortOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseTypeOfOverNightCustoms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverNightRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담보금 대비 OverNight 가능 배숫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrrwReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래정지 조건 사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리종목 조건 사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선주 조건 사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리매매 조건 사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자경고 조건 사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자주의 조건 사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자위험 조건 사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자주의환기 조건 사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreOrderCrossType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price Higher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price Lower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정가격 초과 시 반대매매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정낮은 경우 시 반대매매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시관리 종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 원임으로 임시관리 종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverHLimitRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverLLimitRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverHLimitCur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverLLimitCur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국주식  당일 기준가초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국주식 당일 기준가 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국주식 전일 상한가초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmtLowerRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyLowerRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국주식 전일 거래랑 미달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmtLowerCur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyLowerCur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>한국주식 당일 거래랑 미달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>한국주식 당일 거래대금 미달</t>
-  </si>
-  <si>
-    <t>한국주식 전일 상한가초과</t>
-  </si>
-  <si>
-    <t>한국주식 전일 하한가초과</t>
-  </si>
-  <si>
-    <t>한국주식 전일 거래랑 미달</t>
-  </si>
-  <si>
-    <t>한국주식 전일 거래대금 미달</t>
-  </si>
-  <si>
-    <t>투자주의환기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자위험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Construction-투자위험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자주의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Construction-투자주의환기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opt10017-우선주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력 값유행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LossCutCustoms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LossCut Defualt 고객 설정가능여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnTypeOfShortOrderCustoms</t>
-  </si>
-  <si>
-    <t>(0023)공매매 Close 시 거래금 반환방식 고객 설정가능여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0025)OverNight 초과 부분 자동Close시 Position 처리순서 고객 설정가능여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value3,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffcDays,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseBrrwType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전PostionClose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OverNight초과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미 시행 Open Order 최소처리,전Postion 반대매매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OverNig초과 부분 반대매매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brrw의 Position Close 시 처리 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnTypeOfShortOrder</t>
-  </si>
-  <si>
-    <t>ReturnTypeOfShortOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseTypeOfOverNightCustoms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OverNightRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담보금 대비 OverNight 가능 배숫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrrwReturn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvestLimitActive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래정지 조건 사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리종목 조건 사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선주 조건 사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정리매매 조건 사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자경고 조건 사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자주의 조건 사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자위험 조건 사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자주의환기 조건 사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreOrderCrossType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격초과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격낮음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price Higher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price Lower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정가격 초과 시 반대매매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정낮은 경우 시 반대매매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvestLimit1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvestLimit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvestLimit3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvestLimit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvestLimit5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvestLimit6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvestLimit7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvestLimit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일상한가 종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일하한가 종목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3121,7 +3196,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3399,12 +3474,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I456"/>
+  <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D249" sqref="D249"/>
-      <selection pane="bottomLeft" activeCell="G456" sqref="G456"/>
+      <selection pane="bottomLeft" activeCell="G377" sqref="G377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6222,17 +6297,17 @@
         <v>91</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -9736,7 +9811,7 @@
         <v>15</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -9894,7 +9969,7 @@
         <v>682</v>
       </c>
       <c r="D383" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="E383" s="1"/>
       <c r="F383" s="1" t="s">
@@ -9946,17 +10021,17 @@
         <v>92</v>
       </c>
       <c r="C386" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="D386" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E386" s="1"/>
       <c r="F386" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -10001,17 +10076,17 @@
         <v>93</v>
       </c>
       <c r="C389" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D389" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E389" s="1"/>
       <c r="F389" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -10049,208 +10124,208 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A392" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="D392" s="2"/>
-      <c r="E392" s="2"/>
-      <c r="F392" s="2"/>
-      <c r="G392" s="3"/>
-      <c r="H392" s="3"/>
-      <c r="I392" s="3"/>
+      <c r="A392" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C392" t="s">
+        <v>794</v>
+      </c>
+      <c r="D392" t="s">
+        <v>794</v>
+      </c>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G392" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A393" s="3" t="str">
-        <f>CONCATENATE("'",A392,"'",",")</f>
-        <v>'0028',</v>
-      </c>
-      <c r="B393" s="3" t="str">
-        <f>CONCATENATE("'",B392,"'",",")</f>
-        <v>'LimitByRefQuotation',</v>
-      </c>
-      <c r="C393" s="3" t="str">
-        <f>CONCATENATE("'",C392,"'")</f>
-        <v>'전일시세조근으로 거래 정지관리'</v>
-      </c>
-      <c r="D393" s="3"/>
-      <c r="E393" s="3"/>
-      <c r="F393" s="3"/>
-      <c r="G393" s="3"/>
-      <c r="H393" s="3"/>
-      <c r="I393" s="3" t="str">
-        <f>CONCATENATE($I$1,A393,B393,C393,D393,E393,F393,G393,H393,");")</f>
-        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0028','LimitByRefQuotation','전일시세조근으로 거래 정지관리');</v>
+      <c r="A393" t="str">
+        <f t="shared" ref="A393:F393" si="103">CONCATENATE("'",A392,"'",",")</f>
+        <v>'0027',</v>
+      </c>
+      <c r="B393" t="str">
+        <f t="shared" si="103"/>
+        <v>'0020',</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" si="103"/>
+        <v>'전일상한가 종목',</v>
+      </c>
+      <c r="D393" t="str">
+        <f t="shared" si="103"/>
+        <v>'전일상한가 종목',</v>
+      </c>
+      <c r="E393" t="str">
+        <f t="shared" si="103"/>
+        <v>'',</v>
+      </c>
+      <c r="F393" t="str">
+        <f t="shared" si="103"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G393" t="str">
+        <f>CONCATENATE("'",G392,"'",)</f>
+        <v>'전일상한가 종목'</v>
+      </c>
+      <c r="I393" t="str">
+        <f>CONCATENATE($I$2,A393,B393,C393,D393,E393,F393,G393,H393,");")</f>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0020','전일상한가 종목','전일상한가 종목','','Y','전일상한가 종목');</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>687</v>
+        <v>443</v>
+      </c>
+      <c r="C395" t="s">
+        <v>795</v>
+      </c>
+      <c r="D395" t="s">
+        <v>795</v>
       </c>
       <c r="E395" s="1"/>
       <c r="F395" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G395" s="1" t="s">
-        <v>688</v>
+      <c r="G395" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="str">
-        <f t="shared" ref="A396:F396" si="103">CONCATENATE("'",A395,"'",",")</f>
-        <v>'0028',</v>
+        <f t="shared" ref="A396:F396" si="104">CONCATENATE("'",A395,"'",",")</f>
+        <v>'0027',</v>
       </c>
       <c r="B396" t="str">
-        <f t="shared" si="103"/>
-        <v>'0001',</v>
+        <f t="shared" si="104"/>
+        <v>'0021',</v>
       </c>
       <c r="C396" t="str">
-        <f t="shared" si="103"/>
-        <v>'상한가',</v>
+        <f t="shared" si="104"/>
+        <v>'전일하한가 종목',</v>
       </c>
       <c r="D396" t="str">
-        <f t="shared" si="103"/>
-        <v>'상한가',</v>
+        <f t="shared" si="104"/>
+        <v>'전일하한가 종목',</v>
       </c>
       <c r="E396" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>'',</v>
       </c>
       <c r="F396" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>'Y',</v>
       </c>
       <c r="G396" t="str">
         <f>CONCATENATE("'",G395,"'",)</f>
-        <v>'전일상한가 초과'</v>
+        <v>'전일하한가 종목'</v>
       </c>
       <c r="I396" t="str">
         <f>CONCATENATE($I$2,A396,B396,C396,D396,E396,F396,G396,H396,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0001','상한가','상한가','','Y','전일상한가 초과');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0021','전일하한가 종목','전일하한가 종목','','Y','전일하한가 종목');</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>686</v>
+        <v>99</v>
+      </c>
+      <c r="C398" t="s">
+        <v>769</v>
+      </c>
+      <c r="D398" t="s">
+        <v>769</v>
       </c>
       <c r="E398" s="1"/>
       <c r="F398" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="str">
-        <f t="shared" ref="A399:F399" si="104">CONCATENATE("'",A398,"'",",")</f>
-        <v>'0028',</v>
+        <f t="shared" ref="A399:F399" si="105">CONCATENATE("'",A398,"'",",")</f>
+        <v>'0027',</v>
       </c>
       <c r="B399" t="str">
-        <f t="shared" si="104"/>
-        <v>'0002',</v>
+        <f t="shared" si="105"/>
+        <v>'0030',</v>
       </c>
       <c r="C399" t="str">
-        <f t="shared" si="104"/>
-        <v>'하한가',</v>
+        <f t="shared" si="105"/>
+        <v>'임시관리 종목',</v>
       </c>
       <c r="D399" t="str">
-        <f t="shared" si="104"/>
-        <v>'하한가',</v>
+        <f t="shared" si="105"/>
+        <v>'임시관리 종목',</v>
       </c>
       <c r="E399" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>'',</v>
       </c>
       <c r="F399" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>'Y',</v>
       </c>
       <c r="G399" t="str">
         <f>CONCATENATE("'",G398,"'",)</f>
-        <v>'전일하한가 초과'</v>
+        <v>'각종 원임으로 임시관리 종목'</v>
       </c>
       <c r="I399" t="str">
         <f>CONCATENATE($I$2,A399,B399,C399,D399,E399,F399,G399,H399,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0002','하한가','하한가','','Y','전일하한가 초과');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0030','임시관리 종목','임시관리 종목','','Y','각종 원임으로 임시관리 종목');</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E401" s="1"/>
-      <c r="F401" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G401" s="1" t="s">
-        <v>692</v>
-      </c>
+      <c r="B401" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D401" s="2"/>
+      <c r="E401" s="2"/>
+      <c r="F401" s="2"/>
+      <c r="G401" s="3"/>
+      <c r="H401" s="3"/>
+      <c r="I401" s="3"/>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A402" t="str">
-        <f t="shared" ref="A402:F402" si="105">CONCATENATE("'",A401,"'",",")</f>
+      <c r="A402" s="3" t="str">
+        <f>CONCATENATE("'",A401,"'",",")</f>
         <v>'0028',</v>
       </c>
-      <c r="B402" t="str">
-        <f t="shared" si="105"/>
-        <v>'0003',</v>
-      </c>
-      <c r="C402" t="str">
-        <f t="shared" si="105"/>
-        <v>'거래량미달',</v>
-      </c>
-      <c r="D402" t="str">
-        <f t="shared" si="105"/>
-        <v>'거래량미달',</v>
-      </c>
-      <c r="E402" t="str">
-        <f t="shared" si="105"/>
-        <v>'',</v>
-      </c>
-      <c r="F402" t="str">
-        <f t="shared" si="105"/>
-        <v>'Y',</v>
-      </c>
-      <c r="G402" t="str">
-        <f>CONCATENATE("'",G401,"'",)</f>
-        <v>'전일거래량 미달'</v>
-      </c>
-      <c r="I402" t="str">
-        <f>CONCATENATE($I$2,A402,B402,C402,D402,E402,F402,G402,H402,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0003','거래량미달','거래량미달','','Y','전일거래량 미달');</v>
+      <c r="B402" s="3" t="str">
+        <f>CONCATENATE("'",B401,"'",",")</f>
+        <v>'LimitByRefQuotation',</v>
+      </c>
+      <c r="C402" s="3" t="str">
+        <f>CONCATENATE("'",C401,"'")</f>
+        <v>'전일시세조근으로 거래 정지관리'</v>
+      </c>
+      <c r="D402" s="3"/>
+      <c r="E402" s="3"/>
+      <c r="F402" s="3"/>
+      <c r="G402" s="3"/>
+      <c r="H402" s="3"/>
+      <c r="I402" s="3" t="str">
+        <f>CONCATENATE($I$1,A402,B402,C402,D402,E402,F402,G402,H402,");")</f>
+        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0028','LimitByRefQuotation','전일시세조근으로 거래 정지관리');</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -10258,20 +10333,20 @@
         <v>591</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E404" s="1"/>
       <c r="F404" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -10281,15 +10356,15 @@
       </c>
       <c r="B405" t="str">
         <f t="shared" si="106"/>
-        <v>'0004',</v>
+        <v>'0001',</v>
       </c>
       <c r="C405" t="str">
         <f t="shared" si="106"/>
-        <v>'거래대금미달',</v>
+        <v>'상한가',</v>
       </c>
       <c r="D405" t="str">
         <f t="shared" si="106"/>
-        <v>'거래대금미달',</v>
+        <v>'상한가',</v>
       </c>
       <c r="E405" t="str">
         <f t="shared" si="106"/>
@@ -10301,216 +10376,216 @@
       </c>
       <c r="G405" t="str">
         <f>CONCATENATE("'",G404,"'",)</f>
-        <v>'전일거래대금 미달'</v>
+        <v>'전일상한가 초과'</v>
       </c>
       <c r="I405" t="str">
         <f>CONCATENATE($I$2,A405,B405,C405,D405,E405,F405,G405,H405,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0004','거래대금미달','거래대금미달','','Y','전일거래대금 미달');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0001','상한가','상한가','','Y','전일상한가 초과');</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A407" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="D407" s="2"/>
-      <c r="E407" s="2"/>
-      <c r="F407" s="2"/>
-      <c r="G407" s="3"/>
-      <c r="H407" s="3"/>
-      <c r="I407" s="3"/>
+      <c r="A407" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E407" s="1"/>
+      <c r="F407" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A408" s="3" t="str">
-        <f>CONCATENATE("'",A407,"'",",")</f>
-        <v>'0029',</v>
-      </c>
-      <c r="B408" s="3" t="str">
-        <f>CONCATENATE("'",B407,"'",",")</f>
-        <v>'LimitByCurQuotation',</v>
-      </c>
-      <c r="C408" s="3" t="str">
-        <f>CONCATENATE("'",C407,"'")</f>
-        <v>'당일시세조근으로 거래 정지관리'</v>
-      </c>
-      <c r="D408" s="3"/>
-      <c r="E408" s="3"/>
-      <c r="F408" s="3"/>
-      <c r="G408" s="3"/>
-      <c r="H408" s="3"/>
-      <c r="I408" s="3" t="str">
-        <f>CONCATENATE($I$1,A408,B408,C408,D408,E408,F408,G408,H408,");")</f>
-        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0029','LimitByCurQuotation','당일시세조근으로 거래 정지관리');</v>
+      <c r="A408" t="str">
+        <f t="shared" ref="A408:F408" si="107">CONCATENATE("'",A407,"'",",")</f>
+        <v>'0028',</v>
+      </c>
+      <c r="B408" t="str">
+        <f t="shared" si="107"/>
+        <v>'0002',</v>
+      </c>
+      <c r="C408" t="str">
+        <f t="shared" si="107"/>
+        <v>'하한가',</v>
+      </c>
+      <c r="D408" t="str">
+        <f t="shared" si="107"/>
+        <v>'하한가',</v>
+      </c>
+      <c r="E408" t="str">
+        <f t="shared" si="107"/>
+        <v>'',</v>
+      </c>
+      <c r="F408" t="str">
+        <f t="shared" si="107"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G408" t="str">
+        <f>CONCATENATE("'",G407,"'",)</f>
+        <v>'전일하한가 초과'</v>
+      </c>
+      <c r="I408" t="str">
+        <f>CONCATENATE($I$2,A408,B408,C408,D408,E408,F408,G408,H408,");")</f>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0002','하한가','하한가','','Y','전일하한가 초과');</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E410" s="1"/>
       <c r="F410" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="str">
-        <f t="shared" ref="A411:F411" si="107">CONCATENATE("'",A410,"'",",")</f>
-        <v>'0029',</v>
+        <f t="shared" ref="A411:F411" si="108">CONCATENATE("'",A410,"'",",")</f>
+        <v>'0028',</v>
       </c>
       <c r="B411" t="str">
-        <f t="shared" si="107"/>
-        <v>'0001',</v>
+        <f t="shared" si="108"/>
+        <v>'0003',</v>
       </c>
       <c r="C411" t="str">
-        <f t="shared" si="107"/>
-        <v>'상한가',</v>
+        <f t="shared" si="108"/>
+        <v>'거래량미달',</v>
       </c>
       <c r="D411" t="str">
-        <f t="shared" si="107"/>
-        <v>'상한가',</v>
+        <f t="shared" si="108"/>
+        <v>'거래량미달',</v>
       </c>
       <c r="E411" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>'',</v>
       </c>
       <c r="F411" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>'Y',</v>
       </c>
       <c r="G411" t="str">
         <f>CONCATENATE("'",G410,"'",)</f>
-        <v>'당일상한가 초과'</v>
+        <v>'전일거래량 미달'</v>
       </c>
       <c r="I411" t="str">
         <f>CONCATENATE($I$2,A411,B411,C411,D411,E411,F411,G411,H411,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0001','상한가','상한가','','Y','당일상한가 초과');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0003','거래량미달','거래량미달','','Y','전일거래량 미달');</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="E413" s="1"/>
       <c r="F413" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="str">
-        <f t="shared" ref="A414:F414" si="108">CONCATENATE("'",A413,"'",",")</f>
-        <v>'0029',</v>
+        <f t="shared" ref="A414:F414" si="109">CONCATENATE("'",A413,"'",",")</f>
+        <v>'0028',</v>
       </c>
       <c r="B414" t="str">
-        <f t="shared" si="108"/>
-        <v>'0002',</v>
+        <f t="shared" si="109"/>
+        <v>'0004',</v>
       </c>
       <c r="C414" t="str">
-        <f t="shared" si="108"/>
-        <v>'하한가',</v>
+        <f t="shared" si="109"/>
+        <v>'거래대금미달',</v>
       </c>
       <c r="D414" t="str">
-        <f t="shared" si="108"/>
-        <v>'하한가',</v>
+        <f t="shared" si="109"/>
+        <v>'거래대금미달',</v>
       </c>
       <c r="E414" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>'',</v>
       </c>
       <c r="F414" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>'Y',</v>
       </c>
       <c r="G414" t="str">
         <f>CONCATENATE("'",G413,"'",)</f>
-        <v>'당일하한가 초과'</v>
+        <v>'전일거래대금 미달'</v>
       </c>
       <c r="I414" t="str">
         <f>CONCATENATE($I$2,A414,B414,C414,D414,E414,F414,G414,H414,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0002','하한가','하한가','','Y','당일하한가 초과');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0004','거래대금미달','거래대금미달','','Y','전일거래대금 미달');</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D416" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G416" s="1" t="s">
-        <v>699</v>
-      </c>
+      <c r="B416" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="2"/>
+      <c r="G416" s="3"/>
+      <c r="H416" s="3"/>
+      <c r="I416" s="3"/>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A417" t="str">
-        <f t="shared" ref="A417:F417" si="109">CONCATENATE("'",A416,"'",",")</f>
+      <c r="A417" s="3" t="str">
+        <f>CONCATENATE("'",A416,"'",",")</f>
         <v>'0029',</v>
       </c>
-      <c r="B417" t="str">
-        <f t="shared" si="109"/>
-        <v>'0003',</v>
-      </c>
-      <c r="C417" t="str">
-        <f t="shared" si="109"/>
-        <v>'거래량미달',</v>
-      </c>
-      <c r="D417" t="str">
-        <f t="shared" si="109"/>
-        <v>'거래량미달',</v>
-      </c>
-      <c r="E417" t="str">
-        <f t="shared" si="109"/>
-        <v>'',</v>
-      </c>
-      <c r="F417" t="str">
-        <f t="shared" si="109"/>
-        <v>'Y',</v>
-      </c>
-      <c r="G417" t="str">
-        <f>CONCATENATE("'",G416,"'",)</f>
-        <v>'당일거래량 미달'</v>
-      </c>
-      <c r="I417" t="str">
-        <f>CONCATENATE($I$2,A417,B417,C417,D417,E417,F417,G417,H417,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0003','거래량미달','거래량미달','','Y','당일거래량 미달');</v>
+      <c r="B417" s="3" t="str">
+        <f>CONCATENATE("'",B416,"'",",")</f>
+        <v>'LimitByCurQuotation',</v>
+      </c>
+      <c r="C417" s="3" t="str">
+        <f>CONCATENATE("'",C416,"'")</f>
+        <v>'당일시세조근으로 거래 정지관리'</v>
+      </c>
+      <c r="D417" s="3"/>
+      <c r="E417" s="3"/>
+      <c r="F417" s="3"/>
+      <c r="G417" s="3"/>
+      <c r="H417" s="3"/>
+      <c r="I417" s="3" t="str">
+        <f>CONCATENATE($I$1,A417,B417,C417,D417,E417,F417,G417,H417,");")</f>
+        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0029','LimitByCurQuotation','당일시세조근으로 거래 정지관리');</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -10518,20 +10593,20 @@
         <v>593</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E419" s="1"/>
       <c r="F419" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -10541,15 +10616,15 @@
       </c>
       <c r="B420" t="str">
         <f t="shared" si="110"/>
-        <v>'0004',</v>
+        <v>'0001',</v>
       </c>
       <c r="C420" t="str">
         <f t="shared" si="110"/>
-        <v>'거래대금미달',</v>
+        <v>'상한가',</v>
       </c>
       <c r="D420" t="str">
         <f t="shared" si="110"/>
-        <v>'거래대금미달',</v>
+        <v>'상한가',</v>
       </c>
       <c r="E420" t="str">
         <f t="shared" si="110"/>
@@ -10561,210 +10636,216 @@
       </c>
       <c r="G420" t="str">
         <f>CONCATENATE("'",G419,"'",)</f>
-        <v>'당일거래대금 미달'</v>
+        <v>'당일상한가 초과'</v>
       </c>
       <c r="I420" t="str">
         <f>CONCATENATE($I$2,A420,B420,C420,D420,E420,F420,G420,H420,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0004','거래대금미달','거래대금미달','','Y','당일거래대금 미달');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0001','상한가','상한가','','Y','당일상한가 초과');</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A422" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
-      <c r="G422" s="3"/>
-      <c r="H422" s="3"/>
-      <c r="I422" s="3"/>
+      <c r="A422" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E422" s="1"/>
+      <c r="F422" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A423" s="3" t="str">
-        <f>CONCATENATE("'",A422,"'",",")</f>
-        <v>'0030',</v>
-      </c>
-      <c r="B423" s="3" t="str">
-        <f>CONCATENATE("'",B422,"'",",")</f>
-        <v>'ColumnType',</v>
-      </c>
-      <c r="C423" s="3" t="str">
-        <f>CONCATENATE("'",C422,"'")</f>
-        <v>'입력 값유행'</v>
-      </c>
-      <c r="D423" s="3"/>
-      <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
-      <c r="G423" s="3"/>
-      <c r="H423" s="3"/>
-      <c r="I423" s="3" t="str">
-        <f>CONCATENATE($I$1,A423,B423,C423,D423,E423,F423,G423,H423,");")</f>
-        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0030','ColumnType','입력 값유행');</v>
+      <c r="A423" t="str">
+        <f t="shared" ref="A423:F423" si="111">CONCATENATE("'",A422,"'",",")</f>
+        <v>'0029',</v>
+      </c>
+      <c r="B423" t="str">
+        <f t="shared" si="111"/>
+        <v>'0002',</v>
+      </c>
+      <c r="C423" t="str">
+        <f t="shared" si="111"/>
+        <v>'하한가',</v>
+      </c>
+      <c r="D423" t="str">
+        <f t="shared" si="111"/>
+        <v>'하한가',</v>
+      </c>
+      <c r="E423" t="str">
+        <f t="shared" si="111"/>
+        <v>'',</v>
+      </c>
+      <c r="F423" t="str">
+        <f t="shared" si="111"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G423" t="str">
+        <f>CONCATENATE("'",G422,"'",)</f>
+        <v>'당일하한가 초과'</v>
+      </c>
+      <c r="I423" t="str">
+        <f>CONCATENATE($I$2,A423,B423,C423,D423,E423,F423,G423,H423,");")</f>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0002','하한가','하한가','','Y','당일하한가 초과');</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
-        <v>99</v>
+        <v>593</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D425" s="16" t="s">
-        <v>722</v>
+        <v>690</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="E425" s="1"/>
       <c r="F425" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G425" s="1"/>
+      <c r="G425" s="1" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="str">
-        <f t="shared" ref="A426:F426" si="111">CONCATENATE("'",A425,"'",",")</f>
-        <v>'0030',</v>
+        <f t="shared" ref="A426:F426" si="112">CONCATENATE("'",A425,"'",",")</f>
+        <v>'0029',</v>
       </c>
       <c r="B426" t="str">
-        <f t="shared" si="111"/>
-        <v>'0001',</v>
+        <f t="shared" si="112"/>
+        <v>'0003',</v>
       </c>
       <c r="C426" t="str">
-        <f t="shared" si="111"/>
-        <v>'숫자형',</v>
+        <f t="shared" si="112"/>
+        <v>'거래량미달',</v>
       </c>
       <c r="D426" t="str">
-        <f t="shared" si="111"/>
-        <v>'Number',</v>
+        <f t="shared" si="112"/>
+        <v>'거래량미달',</v>
       </c>
       <c r="E426" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>'',</v>
       </c>
       <c r="F426" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>'Y',</v>
       </c>
       <c r="G426" t="str">
         <f>CONCATENATE("'",G425,"'",)</f>
-        <v>''</v>
+        <v>'당일거래량 미달'</v>
       </c>
       <c r="I426" t="str">
         <f>CONCATENATE($I$2,A426,B426,C426,D426,E426,F426,G426,H426,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0001','숫자형','Number','','Y','');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0003','거래량미달','거래량미달','','Y','당일거래량 미달');</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>99</v>
+        <v>593</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="E428" s="1"/>
       <c r="F428" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G428" s="1"/>
+      <c r="G428" s="1" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="str">
-        <f t="shared" ref="A429:F429" si="112">CONCATENATE("'",A428,"'",",")</f>
-        <v>'0030',</v>
+        <f t="shared" ref="A429:F429" si="113">CONCATENATE("'",A428,"'",",")</f>
+        <v>'0029',</v>
       </c>
       <c r="B429" t="str">
-        <f t="shared" si="112"/>
-        <v>'0002',</v>
+        <f t="shared" si="113"/>
+        <v>'0004',</v>
       </c>
       <c r="C429" t="str">
-        <f t="shared" si="112"/>
-        <v>'문자',</v>
+        <f t="shared" si="113"/>
+        <v>'거래대금미달',</v>
       </c>
       <c r="D429" t="str">
-        <f t="shared" si="112"/>
-        <v>'Text',</v>
+        <f t="shared" si="113"/>
+        <v>'거래대금미달',</v>
       </c>
       <c r="E429" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>'',</v>
       </c>
       <c r="F429" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>'Y',</v>
       </c>
       <c r="G429" t="str">
         <f>CONCATENATE("'",G428,"'",)</f>
-        <v>''</v>
+        <v>'당일거래대금 미달'</v>
       </c>
       <c r="I429" t="str">
         <f>CONCATENATE($I$2,A429,B429,C429,D429,E429,F429,G429,H429,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0002','문자','Text','','Y','');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0004','거래대금미달','거래대금미달','','Y','당일거래대금 미달');</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="E431" s="1"/>
-      <c r="F431" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G431" s="1"/>
+      <c r="B431" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D431" s="2"/>
+      <c r="E431" s="2"/>
+      <c r="F431" s="2"/>
+      <c r="G431" s="3"/>
+      <c r="H431" s="3"/>
+      <c r="I431" s="3"/>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A432" t="str">
-        <f t="shared" ref="A432:F432" si="113">CONCATENATE("'",A431,"'",",")</f>
+      <c r="A432" s="3" t="str">
+        <f>CONCATENATE("'",A431,"'",",")</f>
         <v>'0030',</v>
       </c>
-      <c r="B432" t="str">
-        <f t="shared" si="113"/>
-        <v>'0003',</v>
-      </c>
-      <c r="C432" t="str">
-        <f t="shared" si="113"/>
-        <v>'돈',</v>
-      </c>
-      <c r="D432" t="str">
-        <f t="shared" si="113"/>
-        <v>'Money',</v>
-      </c>
-      <c r="E432" t="str">
-        <f t="shared" si="113"/>
-        <v>'',</v>
-      </c>
-      <c r="F432" t="str">
-        <f t="shared" si="113"/>
-        <v>'Y',</v>
-      </c>
-      <c r="G432" t="str">
-        <f>CONCATENATE("'",G431,"'",)</f>
-        <v>''</v>
-      </c>
-      <c r="I432" t="str">
-        <f>CONCATENATE($I$2,A432,B432,C432,D432,E432,F432,G432,H432,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0003','돈','Money','','Y','');</v>
+      <c r="B432" s="3" t="str">
+        <f>CONCATENATE("'",B431,"'",",")</f>
+        <v>'ColumnType',</v>
+      </c>
+      <c r="C432" s="3" t="str">
+        <f>CONCATENATE("'",C431,"'")</f>
+        <v>'입력 값유행'</v>
+      </c>
+      <c r="D432" s="3"/>
+      <c r="E432" s="3"/>
+      <c r="F432" s="3"/>
+      <c r="G432" s="3"/>
+      <c r="H432" s="3"/>
+      <c r="I432" s="3" t="str">
+        <f>CONCATENATE($I$1,A432,B432,C432,D432,E432,F432,G432,H432,");")</f>
+        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0030','ColumnType','입력 값유행');</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -10772,13 +10853,13 @@
         <v>99</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>725</v>
+        <v>711</v>
+      </c>
+      <c r="D434" s="16" t="s">
+        <v>714</v>
       </c>
       <c r="E434" s="1"/>
       <c r="F434" s="1" t="s">
@@ -10793,15 +10874,15 @@
       </c>
       <c r="B435" t="str">
         <f t="shared" si="114"/>
-        <v>'0004',</v>
+        <v>'0001',</v>
       </c>
       <c r="C435" t="str">
         <f t="shared" si="114"/>
-        <v>'YN',</v>
+        <v>'숫자형',</v>
       </c>
       <c r="D435" t="str">
         <f t="shared" si="114"/>
-        <v>'YN',</v>
+        <v>'Number',</v>
       </c>
       <c r="E435" t="str">
         <f t="shared" si="114"/>
@@ -10817,7 +10898,7 @@
       </c>
       <c r="I435" t="str">
         <f>CONCATENATE($I$2,A435,B435,C435,D435,E435,F435,G435,H435,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0004','YN','YN','','Y','');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0001','숫자형','Number','','Y','');</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -10825,13 +10906,13 @@
         <v>99</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="E437" s="1"/>
       <c r="F437" s="1" t="s">
@@ -10846,15 +10927,15 @@
       </c>
       <c r="B438" t="str">
         <f t="shared" si="115"/>
-        <v>'0005',</v>
+        <v>'0002',</v>
       </c>
       <c r="C438" t="str">
         <f t="shared" si="115"/>
-        <v>'코드',</v>
+        <v>'문자',</v>
       </c>
       <c r="D438" t="str">
         <f t="shared" si="115"/>
-        <v>'Code',</v>
+        <v>'Text',</v>
       </c>
       <c r="E438" t="str">
         <f t="shared" si="115"/>
@@ -10870,167 +10951,178 @@
       </c>
       <c r="I438" t="str">
         <f>CONCATENATE($I$2,A438,B438,C438,D438,E438,F438,G438,H438,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0005','코드','Code','','Y','');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0002','문자','Text','','Y','');</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A440" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="D440" s="2"/>
-      <c r="E440" s="2"/>
-      <c r="F440" s="2"/>
-      <c r="G440" s="3"/>
-      <c r="H440" s="3"/>
-      <c r="I440" s="3"/>
+      <c r="A440" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E440" s="1"/>
+      <c r="F440" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G440" s="1"/>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A441" s="3" t="str">
-        <f>CONCATENATE("'",A440,"'",",")</f>
-        <v>'0031',</v>
-      </c>
-      <c r="B441" s="3" t="str">
-        <f>CONCATENATE("'",B440,"'",",")</f>
-        <v>'CloseBrrwType',</v>
-      </c>
-      <c r="C441" s="3" t="str">
-        <f>CONCATENATE("'",C440,"'")</f>
-        <v>'Brrw의 Position Close 시 처리 방식'</v>
-      </c>
-      <c r="D441" s="3"/>
-      <c r="E441" s="3"/>
-      <c r="F441" s="3"/>
-      <c r="G441" s="3"/>
-      <c r="H441" s="3"/>
-      <c r="I441" s="3" t="str">
-        <f>CONCATENATE($I$1,A441,B441,C441,D441,E441,F441,G441,H441,");")</f>
-        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0031','CloseBrrwType','Brrw의 Position Close 시 처리 방식');</v>
+      <c r="A441" t="str">
+        <f t="shared" ref="A441:F441" si="116">CONCATENATE("'",A440,"'",",")</f>
+        <v>'0030',</v>
+      </c>
+      <c r="B441" t="str">
+        <f t="shared" si="116"/>
+        <v>'0003',</v>
+      </c>
+      <c r="C441" t="str">
+        <f t="shared" si="116"/>
+        <v>'돈',</v>
+      </c>
+      <c r="D441" t="str">
+        <f t="shared" si="116"/>
+        <v>'Money',</v>
+      </c>
+      <c r="E441" t="str">
+        <f t="shared" si="116"/>
+        <v>'',</v>
+      </c>
+      <c r="F441" t="str">
+        <f t="shared" si="116"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G441" t="str">
+        <f>CONCATENATE("'",G440,"'",)</f>
+        <v>''</v>
+      </c>
+      <c r="I441" t="str">
+        <f>CONCATENATE($I$2,A441,B441,C441,D441,E441,F441,G441,H441,");")</f>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0003','돈','Money','','Y','');</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>596</v>
+        <v>99</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D443" s="16" t="s">
-        <v>751</v>
+        <v>717</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="E443" s="1"/>
       <c r="F443" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G443" s="1" t="s">
-        <v>752</v>
-      </c>
+      <c r="G443" s="1"/>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="str">
-        <f t="shared" ref="A444:F444" si="116">CONCATENATE("'",A443,"'",",")</f>
-        <v>'0031',</v>
+        <f t="shared" ref="A444:F444" si="117">CONCATENATE("'",A443,"'",",")</f>
+        <v>'0030',</v>
       </c>
       <c r="B444" t="str">
-        <f t="shared" si="116"/>
-        <v>'0001',</v>
+        <f t="shared" si="117"/>
+        <v>'0004',</v>
       </c>
       <c r="C444" t="str">
-        <f t="shared" si="116"/>
-        <v>'전PostionClose',</v>
+        <f t="shared" si="117"/>
+        <v>'YN',</v>
       </c>
       <c r="D444" t="str">
-        <f t="shared" si="116"/>
-        <v>'All Position',</v>
+        <f t="shared" si="117"/>
+        <v>'YN',</v>
       </c>
       <c r="E444" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>'',</v>
       </c>
       <c r="F444" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>'Y',</v>
       </c>
       <c r="G444" t="str">
         <f>CONCATENATE("'",G443,"'",)</f>
-        <v>'미 시행 Open Order 최소처리,전Postion 반대매매'</v>
+        <v>''</v>
       </c>
       <c r="I444" t="str">
         <f>CONCATENATE($I$2,A444,B444,C444,D444,E444,F444,G444,H444,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0031','0001','전PostionClose','All Position','','Y','미 시행 Open Order 최소처리,전Postion 반대매매');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0004','YN','YN','','Y','');</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>596</v>
+        <v>99</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>368</v>
+        <v>729</v>
       </c>
       <c r="E446" s="1"/>
       <c r="F446" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G446" s="1" t="s">
-        <v>753</v>
-      </c>
+      <c r="G446" s="1"/>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="str">
-        <f t="shared" ref="A447:F447" si="117">CONCATENATE("'",A446,"'",",")</f>
-        <v>'0031',</v>
+        <f t="shared" ref="A447:F447" si="118">CONCATENATE("'",A446,"'",",")</f>
+        <v>'0030',</v>
       </c>
       <c r="B447" t="str">
-        <f t="shared" si="117"/>
-        <v>'0002',</v>
+        <f t="shared" si="118"/>
+        <v>'0005',</v>
       </c>
       <c r="C447" t="str">
-        <f t="shared" si="117"/>
-        <v>'OverNight초과',</v>
+        <f t="shared" si="118"/>
+        <v>'코드',</v>
       </c>
       <c r="D447" t="str">
-        <f t="shared" si="117"/>
-        <v>'OverNight',</v>
+        <f t="shared" si="118"/>
+        <v>'Code',</v>
       </c>
       <c r="E447" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>'',</v>
       </c>
       <c r="F447" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>'Y',</v>
       </c>
       <c r="G447" t="str">
         <f>CONCATENATE("'",G446,"'",)</f>
-        <v>'OverNig초과 부분 반대매매'</v>
+        <v>''</v>
       </c>
       <c r="I447" t="str">
         <f>CONCATENATE($I$2,A447,B447,C447,D447,E447,F447,G447,H447,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0031','0002','OverNight초과','OverNight','','Y','OverNig초과 부분 반대매매');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0005','코드','Code','','Y','');</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="C449" s="2"/>
+        <v>740</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>746</v>
+      </c>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
@@ -11041,15 +11133,15 @@
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="str">
         <f>CONCATENATE("'",A449,"'",",")</f>
-        <v>'0032',</v>
+        <v>'0031',</v>
       </c>
       <c r="B450" s="3" t="str">
         <f>CONCATENATE("'",B449,"'",",")</f>
-        <v>'PreOrderCrossType',</v>
+        <v>'CloseBrrwType',</v>
       </c>
       <c r="C450" s="3" t="str">
         <f>CONCATENATE("'",C449,"'")</f>
-        <v>''</v>
+        <v>'Brrw의 Position Close 시 처리 방식'</v>
       </c>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -11058,116 +11150,264 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3" t="str">
         <f>CONCATENATE($I$1,A450,B450,C450,D450,E450,F450,G450,H450,");")</f>
-        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0032','PreOrderCrossType','');</v>
+        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0031','CloseBrrwType','Brrw의 Position Close 시 처리 방식');</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="D452" s="16" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="E452" s="1"/>
       <c r="F452" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>777</v>
+        <v>744</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="str">
-        <f t="shared" ref="A453:F453" si="118">CONCATENATE("'",A452,"'",",")</f>
-        <v>'0032',</v>
+        <f t="shared" ref="A453:F453" si="119">CONCATENATE("'",A452,"'",",")</f>
+        <v>'0031',</v>
       </c>
       <c r="B453" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>'0001',</v>
       </c>
       <c r="C453" t="str">
-        <f t="shared" si="118"/>
-        <v>'가격초과',</v>
+        <f t="shared" si="119"/>
+        <v>'전PostionClose',</v>
       </c>
       <c r="D453" t="str">
-        <f t="shared" si="118"/>
-        <v>'Price Higher',</v>
+        <f t="shared" si="119"/>
+        <v>'All Position',</v>
       </c>
       <c r="E453" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>'',</v>
       </c>
       <c r="F453" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>'Y',</v>
       </c>
       <c r="G453" t="str">
         <f>CONCATENATE("'",G452,"'",)</f>
-        <v>'지정가격 초과 시 반대매매'</v>
+        <v>'미 시행 Open Order 최소처리,전Postion 반대매매'</v>
       </c>
       <c r="I453" t="str">
         <f>CONCATENATE($I$2,A453,B453,C453,D453,E453,F453,G453,H453,");")</f>
-        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0032','0001','가격초과','Price Higher','','Y','지정가격 초과 시 반대매매');</v>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0031','0001','전PostionClose','All Position','','Y','미 시행 Open Order 최소처리,전Postion 반대매매');</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>776</v>
+        <v>368</v>
       </c>
       <c r="E455" s="1"/>
       <c r="F455" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>778</v>
+        <v>745</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="str">
-        <f t="shared" ref="A456:F456" si="119">CONCATENATE("'",A455,"'",",")</f>
-        <v>'0032',</v>
+        <f t="shared" ref="A456:F456" si="120">CONCATENATE("'",A455,"'",",")</f>
+        <v>'0031',</v>
       </c>
       <c r="B456" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>'0002',</v>
       </c>
       <c r="C456" t="str">
-        <f t="shared" si="119"/>
-        <v>'가격낮음',</v>
+        <f t="shared" si="120"/>
+        <v>'OverNight초과',</v>
       </c>
       <c r="D456" t="str">
-        <f t="shared" si="119"/>
-        <v>'Price Lower',</v>
+        <f t="shared" si="120"/>
+        <v>'OverNight',</v>
       </c>
       <c r="E456" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>'',</v>
       </c>
       <c r="F456" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>'Y',</v>
       </c>
       <c r="G456" t="str">
         <f>CONCATENATE("'",G455,"'",)</f>
-        <v>'지정낮은 경우 시 반대매매'</v>
+        <v>'OverNig초과 부분 반대매매'</v>
       </c>
       <c r="I456" t="str">
         <f>CONCATENATE($I$2,A456,B456,C456,D456,E456,F456,G456,H456,");")</f>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0031','0002','OverNight초과','OverNight','','Y','OverNig초과 부분 반대매매');</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A458" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C458" s="2"/>
+      <c r="D458" s="2"/>
+      <c r="E458" s="2"/>
+      <c r="F458" s="2"/>
+      <c r="G458" s="3"/>
+      <c r="H458" s="3"/>
+      <c r="I458" s="3"/>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A459" s="3" t="str">
+        <f>CONCATENATE("'",A458,"'",",")</f>
+        <v>'0032',</v>
+      </c>
+      <c r="B459" s="3" t="str">
+        <f>CONCATENATE("'",B458,"'",",")</f>
+        <v>'PreOrderCrossType',</v>
+      </c>
+      <c r="C459" s="3" t="str">
+        <f>CONCATENATE("'",C458,"'")</f>
+        <v>''</v>
+      </c>
+      <c r="D459" s="3"/>
+      <c r="E459" s="3"/>
+      <c r="F459" s="3"/>
+      <c r="G459" s="3"/>
+      <c r="H459" s="3"/>
+      <c r="I459" s="3" t="str">
+        <f>CONCATENATE($I$1,A459,B459,C459,D459,E459,F459,G459,H459,");")</f>
+        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0032','PreOrderCrossType','');</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A461" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D461" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="E461" s="1"/>
+      <c r="F461" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A462" t="str">
+        <f t="shared" ref="A462:F462" si="121">CONCATENATE("'",A461,"'",",")</f>
+        <v>'0032',</v>
+      </c>
+      <c r="B462" t="str">
+        <f t="shared" si="121"/>
+        <v>'0001',</v>
+      </c>
+      <c r="C462" t="str">
+        <f t="shared" si="121"/>
+        <v>'가격초과',</v>
+      </c>
+      <c r="D462" t="str">
+        <f t="shared" si="121"/>
+        <v>'Price Higher',</v>
+      </c>
+      <c r="E462" t="str">
+        <f t="shared" si="121"/>
+        <v>'',</v>
+      </c>
+      <c r="F462" t="str">
+        <f t="shared" si="121"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G462" t="str">
+        <f>CONCATENATE("'",G461,"'",)</f>
+        <v>'지정가격 초과 시 반대매매'</v>
+      </c>
+      <c r="I462" t="str">
+        <f>CONCATENATE($I$2,A462,B462,C462,D462,E462,F462,G462,H462,");")</f>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0032','0001','가격초과','Price Higher','','Y','지정가격 초과 시 반대매매');</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E464" s="1"/>
+      <c r="F464" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A465" t="str">
+        <f t="shared" ref="A465:F465" si="122">CONCATENATE("'",A464,"'",",")</f>
+        <v>'0032',</v>
+      </c>
+      <c r="B465" t="str">
+        <f t="shared" si="122"/>
+        <v>'0002',</v>
+      </c>
+      <c r="C465" t="str">
+        <f t="shared" si="122"/>
+        <v>'가격낮음',</v>
+      </c>
+      <c r="D465" t="str">
+        <f t="shared" si="122"/>
+        <v>'Price Lower',</v>
+      </c>
+      <c r="E465" t="str">
+        <f t="shared" si="122"/>
+        <v>'',</v>
+      </c>
+      <c r="F465" t="str">
+        <f t="shared" si="122"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G465" t="str">
+        <f>CONCATENATE("'",G464,"'",)</f>
+        <v>'지정낮은 경우 시 반대매매'</v>
+      </c>
+      <c r="I465" t="str">
+        <f>CONCATENATE($I$2,A465,B465,C465,D465,E465,F465,G465,H465,");")</f>
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0032','0002','가격낮음','Price Lower','','Y','지정낮은 경우 시 반대매매');</v>
       </c>
     </row>
@@ -15256,7 +15496,7 @@
         <v>319</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>320</v>
@@ -16641,7 +16881,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -16699,10 +16939,10 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>225</v>
@@ -16771,10 +17011,10 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>225</v>
@@ -16843,10 +17083,10 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>225</v>
@@ -16915,7 +17155,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -16985,7 +17225,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -17055,10 +17295,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -17129,7 +17369,7 @@
         <v>340</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F21" t="s">
         <v>342</v>
@@ -17194,7 +17434,7 @@
         <v>344</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F24" t="s">
         <v>342</v>
@@ -17260,7 +17500,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -17326,7 +17566,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -17392,7 +17632,7 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
@@ -17458,7 +17698,7 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
@@ -17524,7 +17764,7 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F39" t="s">
         <v>15</v>
@@ -17590,7 +17830,7 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -17656,7 +17896,7 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -17715,20 +17955,20 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>219</v>
@@ -17788,7 +18028,7 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
@@ -17854,7 +18094,7 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
@@ -17920,7 +18160,7 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
@@ -17979,7 +18219,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>261</v>
@@ -17992,7 +18232,7 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>219</v>
@@ -18052,10 +18292,10 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -18114,20 +18354,20 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>219</v>
@@ -18187,10 +18427,10 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -18249,20 +18489,20 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>219</v>
@@ -18322,19 +18562,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C150061-D37A-4D2B-8D2D-2FB468EB9B80}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.875" bestFit="1" customWidth="1"/>
@@ -18351,16 +18590,16 @@
         <v>252</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>51</v>
@@ -18460,27 +18699,21 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>694</v>
+        <v>771</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" t="str">
-        <f t="shared" ref="F6" si="3">CONCATENATE("'",F5,"'",",")</f>
-        <v>'',</v>
-      </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>703</v>
+        <v>778</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>219</v>
@@ -18493,234 +18726,217 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f t="shared" ref="A7:E7" si="4">CONCATENATE("'",A6,"'",",")</f>
-        <v>'LimitByCurQuotation',</v>
+        <f t="shared" ref="A7:I7" si="3">CONCATENATE("'",A6,"'",",")</f>
+        <v>'OverHLimitRef',</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>'10',</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="4"/>
-        <v>'0001',</v>
+        <f t="shared" si="3"/>
+        <v>'30',</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="4"/>
-        <v>'22',</v>
+        <f t="shared" si="3"/>
+        <v>'',</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>'',</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>'',</v>
+      </c>
       <c r="G7" t="str">
-        <f t="shared" ref="G7:I7" si="5">CONCATENATE("'",G6,"'",",")</f>
+        <f t="shared" si="3"/>
         <v>'Y',</v>
       </c>
       <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>'한국주식 전일 상한가초과',</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>'Admin',</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7" si="4">CONCATENATE("to_date('",J6,"','YYYY-MM-DD')")</f>
+        <v>to_date('2018-12-11','YYYY-MM-DD')</v>
+      </c>
+      <c r="M7" t="str">
+        <f>CONCATENATE($M$1,A7,B7,C7,D7,E7,F7,G7,H7,I7,J7,K7,L7,");")</f>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OverHLimitRef','10','30','','','','Y','한국주식 전일 상한가초과','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>772</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f t="shared" ref="A10:I10" si="5">CONCATENATE("'",A9,"'",",")</f>
+        <v>'OverLLimitRef',</v>
+      </c>
+      <c r="B10" t="str">
         <f t="shared" si="5"/>
-        <v>'한국주식 당일 상한가초과',</v>
-      </c>
-      <c r="I7" t="str">
+        <v>'10',</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="5"/>
+        <v>'30',</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="5"/>
+        <v>'',</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="5"/>
+        <v>'',</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="5"/>
+        <v>'',</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Y',</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="5"/>
+        <v>'한국주식 전일 상한가초과',</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="5"/>
         <v>'Admin',</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" ref="J7" si="6">CONCATENATE("to_date('",J6,"','YYYY-MM-DD')")</f>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10" si="6">CONCATENATE("to_date('",J9,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
-      <c r="M7" t="str">
-        <f>CONCATENATE($M$1,A7,B7,C7,D7,E7,F7,G7,H7,I7,J7,K7,L7,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('LimitByCurQuotation','10','0001','22','','Y','한국주식 당일 상한가초과','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F8" t="str">
-        <f t="shared" ref="F8" si="7">CONCATENATE("'",F7,"'",",")</f>
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>694</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="M10" t="str">
+        <f>CONCATENATE($M$1,A10,B10,C10,D10,E10,F10,G10,H10,I10,J10,K10,L10,");")</f>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OverLLimitRef','10','30','','','','Y','한국주식 전일 상한가초과','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>773</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f t="shared" ref="A10:F10" si="8">CONCATENATE("'",A9,"'",",")</f>
-        <v>'LimitByCurQuotation',</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="8"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" ref="A13" si="7">CONCATENATE("'",A12,"'",",")</f>
+        <v>'OverHLimitCur',</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" ref="B13:I13" si="8">CONCATENATE("'",B12,"'",",")</f>
         <v>'10',</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="8"/>
-        <v>'0002',</v>
-      </c>
-      <c r="D10" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="8"/>
         <v>'22',</v>
       </c>
-      <c r="E10" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="8"/>
         <v>'',</v>
       </c>
-      <c r="F10" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="8"/>
         <v>'',</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" ref="G10:I10" si="9">CONCATENATE("'",G9,"'",",")</f>
+      <c r="F13" t="str">
+        <f t="shared" si="8"/>
+        <v>'',</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="8"/>
         <v>'Y',</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="9"/>
-        <v>'한국주식 당일 하한가초과',</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="9"/>
+      <c r="H13" t="str">
+        <f t="shared" si="8"/>
+        <v>'한국주식  당일 기준가초과',</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="8"/>
         <v>'Admin',</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" ref="J10" si="10">CONCATENATE("to_date('",J9,"','YYYY-MM-DD')")</f>
-        <v>to_date('2018-12-11','YYYY-MM-DD')</v>
-      </c>
-      <c r="M10" t="str">
-        <f>CONCATENATE($M$1,A10,B10,C10,D10,E10,F10,G10,H10,I10,J10,K10,L10,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('LimitByCurQuotation','10','0002','22','','','Y','한국주식 당일 하한가초과','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>694</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" t="str">
-        <f t="shared" ref="F12" si="11">CONCATENATE("'",F11,"'",",")</f>
-        <v>'',</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <f t="shared" ref="A13:E13" si="12">CONCATENATE("'",A12,"'",",")</f>
-        <v>'LimitByCurQuotation',</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="12"/>
-        <v>'10',</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="12"/>
-        <v>'0003',</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="12"/>
-        <v>'50000',</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="12"/>
-        <v>'',</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" t="str">
-        <f t="shared" ref="G13:I13" si="13">CONCATENATE("'",G12,"'",",")</f>
-        <v>'N',</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="13"/>
-        <v>'한국주식 당일 거래랑 미달',</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="13"/>
-        <v>'Admin',</v>
-      </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13" si="14">CONCATENATE("to_date('",J12,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J13" si="9">CONCATENATE("to_date('",J12,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M13" t="str">
         <f>CONCATENATE($M$1,A13,B13,C13,D13,E13,F13,G13,H13,I13,J13,K13,L13,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('LimitByCurQuotation','10','0003','50000','','N','한국주식 당일 거래랑 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F14" t="str">
-        <f t="shared" ref="F14" si="15">CONCATENATE("'",F13,"'",",")</f>
-        <v>'',</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OverHLimitCur','10','22','','','','Y','한국주식  당일 기준가초과','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>702</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>706</v>
+        <v>777</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>219</v>
@@ -18733,76 +18949,68 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f t="shared" ref="A16:F16" si="16">CONCATENATE("'",A15,"'",",")</f>
-        <v>'LimitByCurQuotation',</v>
+        <f t="shared" ref="A16:I16" si="10">CONCATENATE("'",A15,"'",",")</f>
+        <v>'OverLLimitCur',</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>'10',</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="16"/>
-        <v>'0004',</v>
+        <f t="shared" si="10"/>
+        <v>'22',</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="16"/>
-        <v>'500000000',</v>
+        <f t="shared" si="10"/>
+        <v>'',</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>'',</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>'',</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" ref="G16:I16" si="17">CONCATENATE("'",G15,"'",",")</f>
-        <v>'N',</v>
+        <f t="shared" si="10"/>
+        <v>'Y',</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="17"/>
-        <v>'한국주식 당일 거래대금 미달',</v>
+        <f t="shared" si="10"/>
+        <v>'한국주식 당일 기준가 이하',</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>'Admin',</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ref="J16" si="18">CONCATENATE("to_date('",J15,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J16" si="11">CONCATENATE("to_date('",J15,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M16" t="str">
         <f>CONCATENATE($M$1,A16,B16,C16,D16,E16,F16,G16,H16,I16,J16,K16,L16,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('LimitByCurQuotation','10','0004','500000000','','','N','한국주식 당일 거래대금 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F17" s="1"/>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OverLLimitCur','10','22','','','','Y','한국주식 당일 기준가 이하','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>685</v>
+        <v>779</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" t="str">
-        <f t="shared" ref="F18" si="19">CONCATENATE("'",F17,"'",",")</f>
-        <v>'',</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>707</v>
+        <v>781</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>219</v>
@@ -18815,73 +19023,68 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f t="shared" ref="A19:E19" si="20">CONCATENATE("'",A18,"'",",")</f>
-        <v>'LimitByRefQuotation',</v>
+        <f t="shared" ref="A19" si="12">CONCATENATE("'",A18,"'",",")</f>
+        <v>'AmtLowerRef',</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="B19:I19" si="13">CONCATENATE("'",B18,"'",",")</f>
         <v>'10',</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="20"/>
-        <v>'0001',</v>
+        <f t="shared" si="13"/>
+        <v>'500000000',</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="20"/>
-        <v>'22',</v>
+        <f t="shared" si="13"/>
+        <v>'',</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>'',</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" t="str">
+        <f t="shared" si="13"/>
+        <v>'',</v>
+      </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:I19" si="21">CONCATENATE("'",G18,"'",",")</f>
+        <f t="shared" si="13"/>
         <v>'Y',</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="21"/>
-        <v>'한국주식 전일 상한가초과',</v>
+        <f t="shared" si="13"/>
+        <v>'한국주식 전일 거래랑 미달',</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>'Admin',</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" ref="J19" si="22">CONCATENATE("to_date('",J18,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J19" si="14">CONCATENATE("to_date('",J18,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M19" t="str">
         <f>CONCATENATE($M$1,A19,B19,C19,D19,E19,F19,G19,H19,I19,J19,K19,L19,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('LimitByRefQuotation','10','0001','22','','Y','한국주식 전일 상한가초과','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F20" t="str">
-        <f t="shared" ref="F20" si="23">CONCATENATE("'",F19,"'",",")</f>
-        <v>'',</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('AmtLowerRef','10','500000000','','','','Y','한국주식 전일 거래랑 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>219</v>
@@ -18894,76 +19097,68 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f t="shared" ref="A22:F22" si="24">CONCATENATE("'",A21,"'",",")</f>
-        <v>'LimitByRefQuotation',</v>
+        <f t="shared" ref="A22:I22" si="15">CONCATENATE("'",A21,"'",",")</f>
+        <v>'MoneyLowerRef',</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>'10',</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="24"/>
-        <v>'0002',</v>
+        <f t="shared" si="15"/>
+        <v>'500000000',</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="24"/>
-        <v>'22',</v>
+        <f t="shared" si="15"/>
+        <v>'',</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>'',</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>'',</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:I22" si="25">CONCATENATE("'",G21,"'",",")</f>
+        <f t="shared" si="15"/>
         <v>'Y',</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="25"/>
-        <v>'한국주식 전일 하한가초과',</v>
+        <f t="shared" si="15"/>
+        <v>'한국주식 전일 거래대금 미달',</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>'Admin',</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22" si="26">CONCATENATE("to_date('",J21,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J22" si="16">CONCATENATE("to_date('",J21,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M22" t="str">
         <f>CONCATENATE($M$1,A22,B22,C22,D22,E22,F22,G22,H22,I22,J22,K22,L22,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('LimitByRefQuotation','10','0002','22','','','Y','한국주식 전일 하한가초과','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F23" s="1"/>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('MoneyLowerRef','10','500000000','','','','Y','한국주식 전일 거래대금 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>685</v>
+        <v>782</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>701</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" t="str">
-        <f t="shared" ref="F24" si="27">CONCATENATE("'",F23,"'",",")</f>
-        <v>'',</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>709</v>
+        <v>784</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>219</v>
@@ -18976,73 +19171,68 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f t="shared" ref="A25:E25" si="28">CONCATENATE("'",A24,"'",",")</f>
-        <v>'LimitByRefQuotation',</v>
+        <f t="shared" ref="A25:I25" si="17">CONCATENATE("'",A24,"'",",")</f>
+        <v>'AmtLowerCur',</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>'10',</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="28"/>
-        <v>'0003',</v>
+        <f t="shared" si="17"/>
+        <v>'500000000',</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="28"/>
-        <v>'50000',</v>
+        <f t="shared" si="17"/>
+        <v>'',</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>'',</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" t="str">
+        <f t="shared" si="17"/>
+        <v>'',</v>
+      </c>
       <c r="G25" t="str">
-        <f t="shared" ref="G25:I25" si="29">CONCATENATE("'",G24,"'",",")</f>
+        <f t="shared" si="17"/>
         <v>'Y',</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="29"/>
-        <v>'한국주식 전일 거래랑 미달',</v>
+        <f t="shared" si="17"/>
+        <v>'한국주식 당일 거래랑 미달',</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>'Admin',</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ref="J25" si="30">CONCATENATE("to_date('",J24,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J25" si="18">CONCATENATE("to_date('",J24,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M25" t="str">
         <f>CONCATENATE($M$1,A25,B25,C25,D25,E25,F25,G25,H25,I25,J25,K25,L25,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('LimitByRefQuotation','10','0003','50000','','Y','한국주식 전일 거래랑 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F26" t="str">
-        <f t="shared" ref="F26" si="31">CONCATENATE("'",F25,"'",",")</f>
-        <v>'',</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('AmtLowerCur','10','500000000','','','','Y','한국주식 당일 거래랑 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>685</v>
+        <v>783</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>702</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>219</v>
@@ -19055,53 +19245,53 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f t="shared" ref="A28:F28" si="32">CONCATENATE("'",A27,"'",",")</f>
-        <v>'LimitByRefQuotation',</v>
+        <f t="shared" ref="A28:I28" si="19">CONCATENATE("'",A27,"'",",")</f>
+        <v>'MoneyLowerCur',</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>'10',</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="32"/>
-        <v>'0004',</v>
+        <f t="shared" si="19"/>
+        <v>'500000000',</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="32"/>
-        <v>'500000000',</v>
+        <f t="shared" si="19"/>
+        <v>'',</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>'',</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>'',</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" ref="G28:I28" si="33">CONCATENATE("'",G27,"'",",")</f>
+        <f t="shared" si="19"/>
         <v>'Y',</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="33"/>
-        <v>'한국주식 전일 거래대금 미달',</v>
+        <f t="shared" si="19"/>
+        <v>'한국주식 당일 거래대금 미달',</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>'Admin',</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" ref="J28" si="34">CONCATENATE("to_date('",J27,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J28" si="20">CONCATENATE("to_date('",J27,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M28" t="str">
         <f>CONCATENATE($M$1,A28,B28,C28,D28,E28,F28,G28,H28,I28,J28,K28,L28,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('LimitByRefQuotation','10','0004','500000000','','','Y','한국주식 전일 거래대금 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('MoneyLowerCur','10','500000000','','','','Y','한국주식 당일 거래대금 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
@@ -19109,16 +19299,14 @@
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>763</v>
-      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>219</v>
@@ -19131,53 +19319,53 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f t="shared" ref="A31:I31" si="35">CONCATENATE("'",A30,"'",",")</f>
-        <v>'InvestLimitActive',</v>
+        <f t="shared" ref="A31:I31" si="21">CONCATENATE("'",A30,"'",",")</f>
+        <v>'InvestLimit1',</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>'10',</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>'0001',</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
+        <v>'',</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="21"/>
+        <v>'',</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="21"/>
+        <v>'',</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="21"/>
         <v>'Y',</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="35"/>
-        <v>'',</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="35"/>
-        <v>'',</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="35"/>
-        <v>'Y',</v>
-      </c>
       <c r="H31" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>'거래정지 조건 사용여부',</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>'Admin',</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" ref="J31" si="36">CONCATENATE("to_date('",J30,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J31" si="22">CONCATENATE("to_date('",J30,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M31" t="str">
         <f>CONCATENATE($M$1,A31,B31,C31,D31,E31,F31,G31,H31,I31,J31,K31,L31,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimitActive','10','0001','Y','','','Y','거래정지 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit1','10','0001','','','','Y','거래정지 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>762</v>
+        <v>787</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
@@ -19185,16 +19373,14 @@
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>763</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>219</v>
@@ -19207,53 +19393,53 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f t="shared" ref="A34:I34" si="37">CONCATENATE("'",A33,"'",",")</f>
-        <v>'InvestLimitActive',</v>
+        <f t="shared" ref="A34:I34" si="23">CONCATENATE("'",A33,"'",",")</f>
+        <v>'InvestLimit2',</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>'10',</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>'0002',</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
+        <v>'',</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="23"/>
+        <v>'',</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="23"/>
+        <v>'',</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="23"/>
         <v>'Y',</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="37"/>
-        <v>'',</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="37"/>
-        <v>'',</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="37"/>
-        <v>'Y',</v>
-      </c>
       <c r="H34" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>'관리종목 조건 사용여부',</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>'Admin',</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34" si="38">CONCATENATE("to_date('",J33,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J34" si="24">CONCATENATE("to_date('",J33,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M34" t="str">
         <f>CONCATENATE($M$1,A34,B34,C34,D34,E34,F34,G34,H34,I34,J34,K34,L34,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimitActive','10','0002','Y','','','Y','관리종목 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit2','10','0002','','','','Y','관리종목 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
@@ -19261,16 +19447,14 @@
       <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>763</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>219</v>
@@ -19283,53 +19467,53 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f t="shared" ref="A37:I37" si="39">CONCATENATE("'",A36,"'",",")</f>
-        <v>'InvestLimitActive',</v>
+        <f t="shared" ref="A37:I37" si="25">CONCATENATE("'",A36,"'",",")</f>
+        <v>'InvestLimit3',</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>'10',</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>'0003',</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
+        <v>'',</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="25"/>
+        <v>'',</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="25"/>
+        <v>'',</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="25"/>
         <v>'Y',</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="39"/>
-        <v>'',</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="39"/>
-        <v>'',</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="39"/>
-        <v>'Y',</v>
-      </c>
       <c r="H37" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>'우선주 조건 사용여부',</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>'Admin',</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" ref="J37" si="40">CONCATENATE("to_date('",J36,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J37" si="26">CONCATENATE("to_date('",J36,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M37" t="str">
         <f>CONCATENATE($M$1,A37,B37,C37,D37,E37,F37,G37,H37,I37,J37,K37,L37,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimitActive','10','0003','Y','','','Y','우선주 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit3','10','0003','','','','Y','우선주 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>26</v>
@@ -19337,16 +19521,14 @@
       <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>763</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>219</v>
@@ -19359,53 +19541,53 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f t="shared" ref="A40:I40" si="41">CONCATENATE("'",A39,"'",",")</f>
-        <v>'InvestLimitActive',</v>
+        <f t="shared" ref="A40:I40" si="27">CONCATENATE("'",A39,"'",",")</f>
+        <v>'InvestLimit4',</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>'10',</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>'0004',</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
+        <v>'',</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="27"/>
+        <v>'',</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="27"/>
+        <v>'',</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="27"/>
         <v>'Y',</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="41"/>
-        <v>'',</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="41"/>
-        <v>'',</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="41"/>
-        <v>'Y',</v>
-      </c>
       <c r="H40" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>'정리매매 조건 사용여부',</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>'Admin',</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ref="J40" si="42">CONCATENATE("to_date('",J39,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J40" si="28">CONCATENATE("to_date('",J39,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M40" t="str">
         <f>CONCATENATE($M$1,A40,B40,C40,D40,E40,F40,G40,H40,I40,J40,K40,L40,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimitActive','10','0004','Y','','','Y','정리매매 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit4','10','0004','','','','Y','정리매매 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>26</v>
@@ -19413,16 +19595,14 @@
       <c r="C42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>763</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>219</v>
@@ -19435,53 +19615,53 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f t="shared" ref="A43:I43" si="43">CONCATENATE("'",A42,"'",",")</f>
-        <v>'InvestLimitActive',</v>
+        <f t="shared" ref="A43:I43" si="29">CONCATENATE("'",A42,"'",",")</f>
+        <v>'InvestLimit5',</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>'10',</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>'0005',</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
+        <v>'',</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="29"/>
+        <v>'',</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="29"/>
+        <v>'',</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="29"/>
         <v>'Y',</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="43"/>
-        <v>'',</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="43"/>
-        <v>'',</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="43"/>
-        <v>'Y',</v>
-      </c>
       <c r="H43" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>'투자경고 조건 사용여부',</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>'Admin',</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" ref="J43" si="44">CONCATENATE("to_date('",J42,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J43" si="30">CONCATENATE("to_date('",J42,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M43" t="str">
         <f>CONCATENATE($M$1,A43,B43,C43,D43,E43,F43,G43,H43,I43,J43,K43,L43,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimitActive','10','0005','Y','','','Y','투자경고 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit5','10','0005','','','','Y','투자경고 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>762</v>
+        <v>791</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>26</v>
@@ -19489,16 +19669,14 @@
       <c r="C45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>763</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>219</v>
@@ -19511,53 +19689,53 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f t="shared" ref="A46:I46" si="45">CONCATENATE("'",A45,"'",",")</f>
-        <v>'InvestLimitActive',</v>
+        <f t="shared" ref="A46:I46" si="31">CONCATENATE("'",A45,"'",",")</f>
+        <v>'InvestLimit6',</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>'10',</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>'0006',</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
+        <v>'',</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="31"/>
+        <v>'',</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="31"/>
+        <v>'',</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="31"/>
         <v>'Y',</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="45"/>
-        <v>'',</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="45"/>
-        <v>'',</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="45"/>
-        <v>'Y',</v>
-      </c>
       <c r="H46" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>'투자주의 조건 사용여부',</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>'Admin',</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" ref="J46" si="46">CONCATENATE("to_date('",J45,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J46" si="32">CONCATENATE("to_date('",J45,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M46" t="str">
         <f>CONCATENATE($M$1,A46,B46,C46,D46,E46,F46,G46,H46,I46,J46,K46,L46,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimitActive','10','0006','Y','','','Y','투자주의 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit6','10','0006','','','','Y','투자주의 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>26</v>
@@ -19565,16 +19743,14 @@
       <c r="C48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>763</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>219</v>
@@ -19587,53 +19763,53 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f t="shared" ref="A49:I49" si="47">CONCATENATE("'",A48,"'",",")</f>
-        <v>'InvestLimitActive',</v>
+        <f t="shared" ref="A49:I49" si="33">CONCATENATE("'",A48,"'",",")</f>
+        <v>'InvestLimit7',</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>'10',</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>'0007',</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
+        <v>'',</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="33"/>
+        <v>'',</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="33"/>
+        <v>'',</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="33"/>
         <v>'Y',</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="47"/>
-        <v>'',</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="47"/>
-        <v>'',</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="47"/>
-        <v>'Y',</v>
-      </c>
       <c r="H49" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>'투자위험 조건 사용여부',</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>'Admin',</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" ref="J49" si="48">CONCATENATE("to_date('",J48,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J49" si="34">CONCATENATE("to_date('",J48,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M49" t="str">
         <f>CONCATENATE($M$1,A49,B49,C49,D49,E49,F49,G49,H49,I49,J49,K49,L49,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimitActive','10','0007','Y','','','Y','투자위험 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit7','10','0007','','','','Y','투자위험 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>762</v>
+        <v>793</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>26</v>
@@ -19641,16 +19817,14 @@
       <c r="C51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>763</v>
-      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>219</v>
@@ -19663,49 +19837,62 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f t="shared" ref="A52:I52" si="49">CONCATENATE("'",A51,"'",",")</f>
-        <v>'InvestLimitActive',</v>
+        <f t="shared" ref="A52:I52" si="35">CONCATENATE("'",A51,"'",",")</f>
+        <v>'InvestLimit8',</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>'10',</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>'0008',</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
+        <v>'',</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="35"/>
+        <v>'',</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="35"/>
+        <v>'',</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="35"/>
         <v>'Y',</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="49"/>
-        <v>'',</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="49"/>
-        <v>'',</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="49"/>
-        <v>'Y',</v>
-      </c>
       <c r="H52" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>'투자주의환기 조건 사용여부',</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>'Admin',</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" ref="J52" si="50">CONCATENATE("to_date('",J51,"','YYYY-MM-DD')")</f>
+        <f t="shared" ref="J52" si="36">CONCATENATE("to_date('",J51,"','YYYY-MM-DD')")</f>
         <v>to_date('2018-12-11','YYYY-MM-DD')</v>
       </c>
       <c r="M52" t="str">
         <f>CONCATENATE($M$1,A52,B52,C52,D52,E52,F52,G52,H52,I52,J52,K52,L52,");")</f>
-        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimitActive','10','0008','Y','','','Y','투자주의환기 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
-      </c>
+        <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit8','10','0008','','','','Y','투자주의환기 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21155,7 +21342,7 @@
         <v>295</v>
       </c>
       <c r="B98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>636</v>
@@ -21300,7 +21487,7 @@
         <v>335</v>
       </c>
       <c r="B113" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>636</v>
@@ -21445,7 +21632,7 @@
         <v>307</v>
       </c>
       <c r="B128" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>636</v>
@@ -21590,7 +21777,7 @@
         <v>305</v>
       </c>
       <c r="B143" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>636</v>

--- a/sample/SQL.xlsx
+++ b/sample/SQL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C038697E-104F-44AE-B43D-6FD3803C3AB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4578C731-AAD7-4298-AF6D-84EAA86DD83D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00.Code" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="04.Bank" sheetId="8" r:id="rId9"/>
     <sheet name="05.ErrorCd" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="809">
   <si>
     <t>CntryId,</t>
   </si>
@@ -3087,6 +3087,58 @@
   </si>
   <si>
     <t>전일하한가 종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자관리상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预埋单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuaranteeWithdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuaranteeWithdrawPcnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출의 밤보금 출금가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출의 밤보금 출금 퍼센트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3094,7 +3146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3115,6 +3167,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3162,7 +3222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3194,6 +3254,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3474,23 +3535,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I465"/>
+  <dimension ref="A1:I477"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D249" sqref="D249"/>
-      <selection pane="bottomLeft" activeCell="G377" sqref="G377"/>
+      <selection pane="bottomLeft" activeCell="I482" sqref="I482"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
@@ -3505,7 +3566,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES (</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>61</v>
       </c>
@@ -3532,7 +3593,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES (</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3549,7 +3610,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE("'",A5,"'",",")</f>
         <v>'0001',</v>
@@ -3572,7 +3633,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0001','DepositeWithdraw','고객 일급/출금 신청에 구분함');</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3591,7 +3652,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f t="shared" ref="A9:F9" si="0">CONCATENATE("'",A8,"'",",")</f>
         <v>'0001',</v>
@@ -3625,7 +3686,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0001','0001','입금','Deposit','','Y','');</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3644,7 +3705,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f t="shared" ref="A12:F12" si="1">CONCATENATE("'",A11,"'",",")</f>
         <v>'0001',</v>
@@ -3678,7 +3739,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0001','0002','출금','WithDraw','','Y','');</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -3695,7 +3756,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE("'",A14,"'",",")</f>
         <v>'0002',</v>
@@ -3718,7 +3779,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0002','AccountExcuteType','입출금 신청의 처리 상태 구분');</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -3737,7 +3798,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
         <f t="shared" ref="A18:F18" si="2">CONCATENATE("'",A17,"'",",")</f>
         <v>'0002',</v>
@@ -3771,7 +3832,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0002','0001','신청','Required','','Y','');</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3790,7 +3851,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
         <f t="shared" ref="A21:F21" si="3">CONCATENATE("'",A20,"'",",")</f>
         <v>'0002',</v>
@@ -3824,7 +3885,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0002','0002','완료','Finished','','Y','');</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -3843,7 +3904,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
         <f t="shared" ref="A24:F24" si="4">CONCATENATE("'",A23,"'",",")</f>
         <v>'0002',</v>
@@ -3877,7 +3938,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0002','0003','거부','Rejected','','Y','');</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3894,7 +3955,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE("'",A26,"'",",")</f>
         <v>'0003',</v>
@@ -3917,7 +3978,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0003','EventType','Site에서 활동 한 Event의 중목을 구분 함 ');</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -3938,7 +3999,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
         <f t="shared" ref="A30:F30" si="5">CONCATENATE("'",A29,"'",",")</f>
         <v>'0003',</v>
@@ -3972,7 +4033,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0003','0001','수수료','Trade Fee','','Y','수수료 활인 Event');</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -3993,7 +4054,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
         <f t="shared" ref="A33:F33" si="6">CONCATENATE("'",A32,"'",",")</f>
         <v>'0003',</v>
@@ -4027,7 +4088,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0003','0002','고객 첫 충전','First Deposit','','Y','충전 Bonus Event');</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -4048,7 +4109,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
         <f t="shared" ref="A36:F36" si="7">CONCATENATE("'",A35,"'",",")</f>
         <v>'0003',</v>
@@ -4082,7 +4143,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0003','0003','월 충전','Monthly Deposit','','Y','충전 Bonus Event');</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>77</v>
       </c>
@@ -4099,7 +4160,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="str">
         <f>CONCATENATE("'",A38,"'",",")</f>
         <v>'0004',</v>
@@ -4122,7 +4183,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0004','RateOfBorrow','Site에서 제공 가능 대출 비율. 단 Market별, 고객 등급별 차별화 관리 함');</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -4143,7 +4204,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
         <f t="shared" ref="A42:F42" si="8">CONCATENATE("'",A41,"'",",")</f>
         <v>'0004',</v>
@@ -4177,7 +4238,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0001','1배','1X','1','Y','');</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -4198,7 +4259,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
         <f t="shared" ref="A45:F45" si="9">CONCATENATE("'",A44,"'",",")</f>
         <v>'0004',</v>
@@ -4232,7 +4293,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0002','2배','2X','2','Y','');</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
@@ -4253,7 +4314,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
         <f t="shared" ref="A48:F48" si="10">CONCATENATE("'",A47,"'",",")</f>
         <v>'0004',</v>
@@ -4287,7 +4348,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0003','3배','3X','3','Y','');</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>77</v>
       </c>
@@ -4308,7 +4369,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
         <f t="shared" ref="A51:F51" si="11">CONCATENATE("'",A50,"'",",")</f>
         <v>'0004',</v>
@@ -4342,7 +4403,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0004','4배','4X','4','N','');</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -4363,7 +4424,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
         <f t="shared" ref="A54:F54" si="12">CONCATENATE("'",A53,"'",",")</f>
         <v>'0004',</v>
@@ -4397,7 +4458,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0005','5배','5X','5','Y','');</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
@@ -4418,7 +4479,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" t="str">
         <f t="shared" ref="A57:F57" si="13">CONCATENATE("'",A56,"'",",")</f>
         <v>'0004',</v>
@@ -4452,7 +4513,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0006','6배','6X','6','N','');</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
@@ -4473,7 +4534,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" t="str">
         <f t="shared" ref="A60:F60" si="14">CONCATENATE("'",A59,"'",",")</f>
         <v>'0004',</v>
@@ -4507,7 +4568,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0007','7배','7X','7','N','');</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>77</v>
       </c>
@@ -4528,7 +4589,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" t="str">
         <f t="shared" ref="A63:F63" si="15">CONCATENATE("'",A62,"'",",")</f>
         <v>'0004',</v>
@@ -4562,7 +4623,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0008','8배','8X','8','Y','');</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -4583,7 +4644,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" t="str">
         <f t="shared" ref="A66:F66" si="16">CONCATENATE("'",A65,"'",",")</f>
         <v>'0004',</v>
@@ -4617,7 +4678,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0009','9배','9X','9','N','');</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -4638,7 +4699,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" t="str">
         <f t="shared" ref="A69:F69" si="17">CONCATENATE("'",A68,"'",",")</f>
         <v>'0004',</v>
@@ -4672,7 +4733,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0010','10배','10X','10','Y','');</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
@@ -4693,7 +4754,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" t="str">
         <f t="shared" ref="A72:F72" si="18">CONCATENATE("'",A71,"'",",")</f>
         <v>'0004',</v>
@@ -4727,7 +4788,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0015','15배','15X','15','Y','');</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -4748,7 +4809,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" t="str">
         <f t="shared" ref="A75:F75" si="19">CONCATENATE("'",A74,"'",",")</f>
         <v>'0004',</v>
@@ -4782,7 +4843,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0020','20배','20X','20','Y','');</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -4803,7 +4864,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" t="str">
         <f t="shared" ref="A78:F78" si="20">CONCATENATE("'",A77,"'",",")</f>
         <v>'0004',</v>
@@ -4837,7 +4898,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0025','25배','25X','25','Y','');</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -4858,7 +4919,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" t="str">
         <f t="shared" ref="A81:F81" si="21">CONCATENATE("'",A80,"'",",")</f>
         <v>'0004',</v>
@@ -4892,7 +4953,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0030','30배','30X','30','N','');</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
@@ -4913,7 +4974,7 @@
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" t="str">
         <f t="shared" ref="A84:F84" si="22">CONCATENATE("'",A83,"'",",")</f>
         <v>'0004',</v>
@@ -4947,7 +5008,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0004','0050','50배','50X','50','N','');</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
@@ -4964,7 +5025,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="str">
         <f>CONCATENATE("'",A86,"'",",")</f>
         <v>'0006',</v>
@@ -4987,7 +5048,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0006','BorrowType','대출 사용/반환 구분 함');</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -5006,7 +5067,7 @@
       </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" t="str">
         <f t="shared" ref="A90:F90" si="23">CONCATENATE("'",A89,"'",",")</f>
         <v>'0006',</v>
@@ -5040,7 +5101,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0006','0001','사용','Using','','Y','');</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -5059,7 +5120,7 @@
       </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" t="str">
         <f t="shared" ref="A93:F93" si="24">CONCATENATE("'",A92,"'",",")</f>
         <v>'0006',</v>
@@ -5093,7 +5154,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0006','0002','상환','Return','','Y','');</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -5110,7 +5171,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="str">
         <f>CONCATENATE("'",A95,"'",",")</f>
         <v>'0007',</v>
@@ -5133,7 +5194,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0007',' OrderTransSts','주문처리상태. OrderTrans,Order');</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
@@ -5152,7 +5213,7 @@
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" t="str">
         <f t="shared" ref="A99:F99" si="25">CONCATENATE("'",A98,"'",",")</f>
         <v>'0007',</v>
@@ -5186,7 +5247,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0007','0001','미체결','Waiting','','Y','');</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
@@ -5205,7 +5266,7 @@
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" t="str">
         <f t="shared" ref="A102:F102" si="26">CONCATENATE("'",A101,"'",",")</f>
         <v>'0007',</v>
@@ -5239,7 +5300,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0007','0002','체결','Executed','','Y','');</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
@@ -5258,7 +5319,7 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" t="str">
         <f t="shared" ref="A105:F105" si="27">CONCATENATE("'",A104,"'",",")</f>
         <v>'0007',</v>
@@ -5292,7 +5353,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0007','0003','취소','Cancel','','Y','');</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>92</v>
       </c>
@@ -5311,7 +5372,7 @@
       </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" t="str">
         <f t="shared" ref="A108:F108" si="28">CONCATENATE("'",A107,"'",",")</f>
         <v>'0007',</v>
@@ -5345,7 +5406,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0007','0004','거부','Rejected','','Y','');</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>92</v>
       </c>
@@ -5364,7 +5425,7 @@
       </c>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" t="str">
         <f t="shared" ref="A111:F111" si="29">CONCATENATE("'",A110,"'",",")</f>
         <v>'0007',</v>
@@ -5398,7 +5459,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0007','0005','Rollback','Rollback','','Y','');</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>93</v>
       </c>
@@ -5415,7 +5476,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="str">
         <f>CONCATENATE("'",A113,"'",",")</f>
         <v>'0008',</v>
@@ -5438,7 +5499,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0008','TradeType','TradeType 매수/매도구분');</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>93</v>
       </c>
@@ -5457,7 +5518,7 @@
       </c>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" t="str">
         <f t="shared" ref="A117:F117" si="30">CONCATENATE("'",A116,"'",",")</f>
         <v>'0008',</v>
@@ -5491,7 +5552,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0008','0001','매수','Buy','','Y','');</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>93</v>
       </c>
@@ -5510,7 +5571,7 @@
       </c>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" t="str">
         <f t="shared" ref="A120:F120" si="31">CONCATENATE("'",A119,"'",",")</f>
         <v>'0008',</v>
@@ -5544,7 +5605,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0008','0002','매도','Sell','','Y','');</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>94</v>
       </c>
@@ -5561,7 +5622,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="str">
         <f>CONCATENATE("'",A122,"'",",")</f>
         <v>'0009',</v>
@@ -5584,7 +5645,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0009','OrderType','OrderType 지정가/시장가 구분');</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>94</v>
       </c>
@@ -5603,7 +5664,7 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" t="str">
         <f t="shared" ref="A126:F126" si="32">CONCATENATE("'",A125,"'",",")</f>
         <v>'0009',</v>
@@ -5637,7 +5698,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0009','0001','지정가','Limit','','Y','');</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>94</v>
       </c>
@@ -5656,7 +5717,7 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" t="str">
         <f t="shared" ref="A129:F129" si="33">CONCATENATE("'",A128,"'",",")</f>
         <v>'0009',</v>
@@ -5690,7 +5751,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0009','0002','시가','Market','','Y','');</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>95</v>
       </c>
@@ -5707,7 +5768,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="str">
         <f>CONCATENATE("'",A131,"'",",")</f>
         <v>'0010',</v>
@@ -5730,7 +5791,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0010','PositionType','PositionType Long/Short(다/공) 구분');</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>95</v>
       </c>
@@ -5749,7 +5810,7 @@
       </c>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" t="str">
         <f t="shared" ref="A135:F135" si="34">CONCATENATE("'",A134,"'",",")</f>
         <v>'0010',</v>
@@ -5783,7 +5844,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0010','0001','다','Long','','Y','');</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>95</v>
       </c>
@@ -5802,7 +5863,7 @@
       </c>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" t="str">
         <f t="shared" ref="A138:F138" si="35">CONCATENATE("'",A137,"'",",")</f>
         <v>'0010',</v>
@@ -5836,7 +5897,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0010','0002','공','Short','','Y','');</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>157</v>
       </c>
@@ -5853,7 +5914,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="str">
         <f>CONCATENATE("'",A140,"'",",")</f>
         <v>'0011',</v>
@@ -5876,7 +5937,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0011','OpenCloseType','Position상태 구분 Open/Close');</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>157</v>
       </c>
@@ -5895,7 +5956,7 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" t="str">
         <f t="shared" ref="A144:F144" si="36">CONCATENATE("'",A143,"'",",")</f>
         <v>'0011',</v>
@@ -5929,7 +5990,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0011','0001','Open','Open','','Y','');</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>157</v>
       </c>
@@ -5948,7 +6009,7 @@
       </c>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" t="str">
         <f t="shared" ref="A147:F147" si="37">CONCATENATE("'",A146,"'",",")</f>
         <v>'0011',</v>
@@ -5982,7 +6043,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0011','0002','Close','Close','','Y','');</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>158</v>
       </c>
@@ -6001,7 +6062,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="3" t="str">
         <f>CONCATENATE("'",A149,"'",",")</f>
         <v>'0012',</v>
@@ -6024,7 +6085,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0012','OrderSourceType','체결 방식구분 : 고객/마감/이익스탑/손실스탑/중목LossCut/대출 LossCut/OverNight 초과/OverNight만기');</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>158</v>
       </c>
@@ -6043,7 +6104,7 @@
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" t="str">
         <f t="shared" ref="A153:F153" si="38">CONCATENATE("'",A152,"'",",")</f>
         <v>'0012',</v>
@@ -6077,7 +6138,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0012','0001','고개','Customer','','Y','');</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -6096,7 +6157,7 @@
       </c>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" t="str">
         <f t="shared" ref="A156:F156" si="39">CONCATENATE("'",A155,"'",",")</f>
         <v>'0012',</v>
@@ -6130,7 +6191,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0012','0002','마감','CloseMarket','','Y','');</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
@@ -6149,7 +6210,7 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" t="str">
         <f t="shared" ref="A159:F159" si="40">CONCATENATE("'",A158,"'",",")</f>
         <v>'0012',</v>
@@ -6183,7 +6244,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0012','0003','이익스탑','OverStop','','Y','');</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -6202,7 +6263,7 @@
       </c>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" t="str">
         <f t="shared" ref="A162:F162" si="41">CONCATENATE("'",A161,"'",",")</f>
         <v>'0012',</v>
@@ -6236,7 +6297,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0012','0004','손실스탑','LowerStop','','Y','');</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>158</v>
       </c>
@@ -6255,7 +6316,7 @@
       </c>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" t="str">
         <f t="shared" ref="A165:F165" si="42">CONCATENATE("'",A164,"'",",")</f>
         <v>'0012',</v>
@@ -6289,7 +6350,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0012','0005','LossCut','LossCutClose','','Y','');</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>158</v>
       </c>
@@ -6310,7 +6371,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" t="str">
         <f t="shared" ref="A168:F168" si="43">CONCATENATE("'",A167,"'",",")</f>
         <v>'0012',</v>
@@ -6344,7 +6405,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0012','0006','BrrwReturn','BrrwReturn','','Y','대출반환');</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>158</v>
       </c>
@@ -6363,7 +6424,7 @@
       </c>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" t="str">
         <f t="shared" ref="A171:F171" si="44">CONCATENATE("'",A170,"'",",")</f>
         <v>'0012',</v>
@@ -6397,7 +6458,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0012','0007','오버낫초과','OverNightOver','','Y','');</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>158</v>
       </c>
@@ -6416,7 +6477,7 @@
       </c>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" t="str">
         <f t="shared" ref="A174:F174" si="45">CONCATENATE("'",A173,"'",",")</f>
         <v>'0012',</v>
@@ -6450,7 +6511,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0012','0008','오버낫만기','OverNightClose','','Y','');</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>158</v>
       </c>
@@ -6469,7 +6530,7 @@
       </c>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" t="str">
         <f t="shared" ref="A177:F177" si="46">CONCATENATE("'",A176,"'",",")</f>
         <v>'0012',</v>
@@ -6503,7 +6564,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0012','0010','관리자','ManagerClose','','Y','');</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>213</v>
       </c>
@@ -6520,7 +6581,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="3" t="str">
         <f>CONCATENATE("'",A179,"'",",")</f>
         <v>'0013',</v>
@@ -6543,7 +6604,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0013','VipKeepingType','Vip유지조건');</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>213</v>
       </c>
@@ -6564,7 +6625,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" t="str">
         <f t="shared" ref="A183:F183" si="47">CONCATENATE("'",A182,"'",",")</f>
         <v>'0013',</v>
@@ -6598,7 +6659,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0013','0001','기분','Basic','','Y','Defual로 적용Vip');</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>213</v>
       </c>
@@ -6619,7 +6680,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" t="str">
         <f t="shared" ref="A186:F186" si="48">CONCATENATE("'",A185,"'",",")</f>
         <v>'0013',</v>
@@ -6653,7 +6714,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0013','0002','주기변환','Period','','Y','주기적으로 조건 만족 여부 확인');</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>213</v>
       </c>
@@ -6674,7 +6735,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" t="str">
         <f t="shared" ref="A189:F189" si="49">CONCATENATE("'",A188,"'",",")</f>
         <v>'0013',</v>
@@ -6708,7 +6769,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0013','0003','영구','Always','','Y','이회적으로적용 되면 영구 등급 보유');</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>213</v>
       </c>
@@ -6729,7 +6790,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" t="str">
         <f t="shared" ref="A192:F192" si="50">CONCATENATE("'",A191,"'",",")</f>
         <v>'0013',</v>
@@ -6763,7 +6824,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0013','0004','수동','Setting','','Y','관리자지정(Vip Event관련)');</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>220</v>
       </c>
@@ -6780,7 +6841,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="3" t="str">
         <f>CONCATENATE("'",A194,"'",",")</f>
         <v>'0014',</v>
@@ -6803,7 +6864,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0014','CalFeeType','세금/수수료방생시기');</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>220</v>
       </c>
@@ -6822,7 +6883,7 @@
       </c>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" t="str">
         <f t="shared" ref="A198:F198" si="51">CONCATENATE("'",A197,"'",",")</f>
         <v>'0014',</v>
@@ -6856,7 +6917,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0014','0001','Open','Open','','Y','');</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>220</v>
       </c>
@@ -6875,7 +6936,7 @@
       </c>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" t="str">
         <f t="shared" ref="A201:F201" si="52">CONCATENATE("'",A200,"'",",")</f>
         <v>'0014',</v>
@@ -6909,7 +6970,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0014','0002','Close','Close','','Y','');</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>220</v>
       </c>
@@ -6928,7 +6989,7 @@
       </c>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204" t="str">
         <f t="shared" ref="A204:F204" si="53">CONCATENATE("'",A203,"'",",")</f>
         <v>'0014',</v>
@@ -6962,7 +7023,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0014','0003','Both','Both','','Y','');</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>96</v>
       </c>
@@ -6979,7 +7040,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207" s="3" t="str">
         <f>CONCATENATE("'",A206,"'",",")</f>
         <v>'0015',</v>
@@ -7002,7 +7063,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0015','VipUpdatePeriod','Vip 등급Update(마감)주기');</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>96</v>
       </c>
@@ -7021,7 +7082,7 @@
       </c>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210" t="str">
         <f t="shared" ref="A210:F210" si="54">CONCATENATE("'",A209,"'",",")</f>
         <v>'0015',</v>
@@ -7055,7 +7116,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0015','0001','Day','Day','','Y','');</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>96</v>
       </c>
@@ -7074,7 +7135,7 @@
       </c>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A213" t="str">
         <f t="shared" ref="A213:F213" si="55">CONCATENATE("'",A212,"'",",")</f>
         <v>'0015',</v>
@@ -7108,7 +7169,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0015','0002','Week','Week','','Y','');</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>96</v>
       </c>
@@ -7127,7 +7188,7 @@
       </c>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A216" t="str">
         <f t="shared" ref="A216:F216" si="56">CONCATENATE("'",A215,"'",",")</f>
         <v>'0015',</v>
@@ -7161,7 +7222,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0015','0003','Month','Month','','Y','');</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
         <v>239</v>
       </c>
@@ -7178,7 +7239,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A219" s="3" t="str">
         <f>CONCATENATE("'",A218,"'",",")</f>
         <v>'0016',</v>
@@ -7201,7 +7262,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0016','UserType','사용자유행');</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>239</v>
       </c>
@@ -7220,7 +7281,7 @@
       </c>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A222" t="str">
         <f t="shared" ref="A222:F222" si="57">CONCATENATE("'",A221,"'",",")</f>
         <v>'0016',</v>
@@ -7254,7 +7315,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0016','0001','사용자','User','','Y','');</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>239</v>
       </c>
@@ -7273,7 +7334,7 @@
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A225" t="str">
         <f t="shared" ref="A225:F225" si="58">CONCATENATE("'",A224,"'",",")</f>
         <v>'0016',</v>
@@ -7307,7 +7368,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0016','0002','운영자','Manager','','Y','');</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>239</v>
       </c>
@@ -7326,7 +7387,7 @@
       </c>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228" t="str">
         <f t="shared" ref="A228:F228" si="59">CONCATENATE("'",A227,"'",",")</f>
         <v>'0016',</v>
@@ -7360,7 +7421,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0016','0003','임시사용자','Temp','','Y','');</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>239</v>
       </c>
@@ -7381,7 +7442,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A231" t="str">
         <f t="shared" ref="A231:F231" si="60">CONCATENATE("'",A230,"'",",")</f>
         <v>'0016',</v>
@@ -7415,7 +7476,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0016','0004','Owner','Owner','','Y','Owner 하나만 준제');</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>239</v>
       </c>
@@ -7434,7 +7495,7 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A234" t="str">
         <f t="shared" ref="A234:F234" si="61">CONCATENATE("'",A233,"'",",")</f>
         <v>'0016',</v>
@@ -7468,7 +7529,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0016','0009','테스트','Test','','Y','');</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -7487,7 +7548,7 @@
       </c>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A237" t="str">
         <f t="shared" ref="A237:F237" si="62">CONCATENATE("'",A236,"'",",")</f>
         <v>'0016',</v>
@@ -7521,7 +7582,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0016','0010','관리자','Admin','','Y','');</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
         <v>253</v>
       </c>
@@ -7538,7 +7599,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A240" s="3" t="str">
         <f>CONCATENATE("'",A239,"'",",")</f>
         <v>'0017',</v>
@@ -7561,7 +7622,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0017','Nation','국가(거래소)');</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>253</v>
       </c>
@@ -7580,7 +7641,7 @@
       </c>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A243" t="str">
         <f t="shared" ref="A243:F243" si="63">CONCATENATE("'",A242,"'",",")</f>
         <v>'0017',</v>
@@ -7614,7 +7675,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0017','0001','한국','Korea','','Y','');</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>253</v>
       </c>
@@ -7633,7 +7694,7 @@
       </c>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A246" t="str">
         <f t="shared" ref="A246:F246" si="64">CONCATENATE("'",A245,"'",",")</f>
         <v>'0017',</v>
@@ -7667,7 +7728,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0017','0002','중국','China','','N','');</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>308</v>
       </c>
@@ -7684,7 +7745,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A249" s="3" t="str">
         <f>CONCATENATE("'",A248,"'",",")</f>
         <v>'0018',</v>
@@ -7707,7 +7768,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0018','TypeOfBank','은행고객/수유자');</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
         <v>308</v>
       </c>
@@ -7726,7 +7787,7 @@
       </c>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A252" t="str">
         <f t="shared" ref="A252:F252" si="65">CONCATENATE("'",A251,"'",",")</f>
         <v>'0018',</v>
@@ -7760,7 +7821,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0018','0001','고객','Customer','','Y','');</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
         <v>308</v>
       </c>
@@ -7779,7 +7840,7 @@
       </c>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A255" t="str">
         <f t="shared" ref="A255:F255" si="66">CONCATENATE("'",A254,"'",",")</f>
         <v>'0018',</v>
@@ -7813,7 +7874,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0018','0002','소유자','Owner','','Y','');</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
         <v>388</v>
       </c>
@@ -7828,7 +7889,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A258" s="3" t="str">
         <f>CONCATENATE("'",A257,"'",",")</f>
         <v>'0019',</v>
@@ -7851,7 +7912,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0019','BonusSource','');</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
         <v>388</v>
       </c>
@@ -7870,7 +7931,7 @@
       </c>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A261" t="str">
         <f t="shared" ref="A261:F261" si="67">CONCATENATE("'",A260,"'",",")</f>
         <v>'0019',</v>
@@ -7904,7 +7965,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0019','0001','Vip Deposit Bonus','Vip Deposit Bonus','','Y','');</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
         <v>388</v>
       </c>
@@ -7923,7 +7984,7 @@
       </c>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A264" t="str">
         <f t="shared" ref="A264:F264" si="68">CONCATENATE("'",A263,"'",",")</f>
         <v>'0019',</v>
@@ -7957,7 +8018,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0019','0002','Event Deposit Bonus','Event Deposit Bonus','','Y','');</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
         <v>97</v>
       </c>
@@ -7974,7 +8035,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A267" s="3" t="str">
         <f>CONCATENATE("'",A266,"'",",")</f>
         <v>'0020',</v>
@@ -7997,7 +8058,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0020','BankName','은행명');</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>97</v>
       </c>
@@ -8016,7 +8077,7 @@
       </c>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A270" t="str">
         <f t="shared" ref="A270:F270" si="69">CONCATENATE("'",A269,"'",",")</f>
         <v>'0020',</v>
@@ -8050,7 +8111,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0020','0001','하나은행','….','','Y','');</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>97</v>
       </c>
@@ -8069,7 +8130,7 @@
       </c>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A273" t="str">
         <f t="shared" ref="A273:F273" si="70">CONCATENATE("'",A272,"'",",")</f>
         <v>'0020',</v>
@@ -8103,7 +8164,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0020','0002','국민은행','….','','Y','');</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
         <v>97</v>
       </c>
@@ -8122,7 +8183,7 @@
       </c>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A276" t="str">
         <f t="shared" ref="A276:F276" si="71">CONCATENATE("'",A275,"'",",")</f>
         <v>'0020',</v>
@@ -8156,7 +8217,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0020','0003','신한은행','….','','Y','');</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
         <v>97</v>
       </c>
@@ -8175,7 +8236,7 @@
       </c>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A279" t="str">
         <f t="shared" ref="A279:F279" si="72">CONCATENATE("'",A278,"'",",")</f>
         <v>'0020',</v>
@@ -8209,7 +8270,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0020','0004','농협은행','….','','Y','');</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A281" s="2" t="s">
         <v>443</v>
       </c>
@@ -8226,7 +8287,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A282" s="3" t="str">
         <f>CONCATENATE("'",A281,"'",",")</f>
         <v>'0021',</v>
@@ -8249,7 +8310,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0021','PlaceType','거래자금유행');</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>443</v>
       </c>
@@ -8270,7 +8331,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A285" t="str">
         <f t="shared" ref="A285:F285" si="73">CONCATENATE("'",A284,"'",",")</f>
         <v>'0021',</v>
@@ -8304,7 +8365,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0021','0001','대출','Borrow','','Y','담보금으로 대출 신청 하여 거래 하는 방식');</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
         <v>443</v>
       </c>
@@ -8325,7 +8386,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A288" t="str">
         <f t="shared" ref="A288:F288" si="74">CONCATENATE("'",A287,"'",",")</f>
         <v>'0021',</v>
@@ -8359,7 +8420,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0021','0002','마진(Earnings)','Earnings','','Y','미 결재 마직으로 재 투자(대출금 사용 안함)');</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
         <v>443</v>
       </c>
@@ -8380,7 +8441,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A291" t="str">
         <f t="shared" ref="A291:F291" si="75">CONCATENATE("'",A290,"'",",")</f>
         <v>'0021',</v>
@@ -8414,7 +8475,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0021','0003','중개(Hedge)','Hedge)','','Y','다공 양방면 투자(대출금 사용 안함)');</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A293" s="2" t="s">
         <v>455</v>
       </c>
@@ -8431,7 +8492,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A294" s="3" t="str">
         <f>CONCATENATE("'",A293,"'",",")</f>
         <v>'0022',</v>
@@ -8454,7 +8515,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0022','TypeOfMarketTradeTime','거래소 운영시간관리 Type');</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
         <v>455</v>
       </c>
@@ -8475,7 +8536,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A297" t="str">
         <f t="shared" ref="A297:F297" si="76">CONCATENATE("'",A296,"'",",")</f>
         <v>'0022',</v>
@@ -8509,7 +8570,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0022','0001','거래시간','Tradable','','Y','거래 가능시간');</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
         <v>455</v>
       </c>
@@ -8530,7 +8591,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A300" t="str">
         <f t="shared" ref="A300:F300" si="77">CONCATENATE("'",A299,"'",",")</f>
         <v>'0022',</v>
@@ -8564,7 +8625,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0022','0002','휴식시간','Unexecutable','','Y','점심 휴장시간,Order주문가능 하지만 실행 불가');</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A302" s="2" t="s">
         <v>462</v>
       </c>
@@ -8581,7 +8642,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A303" s="3" t="str">
         <f>CONCATENATE("'",A302,"'",",")</f>
         <v>'0023',</v>
@@ -8604,7 +8665,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0023','CloseOrderOfShort','공매매의Close주문 반환금액 방식');</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
         <v>462</v>
       </c>
@@ -8625,7 +8686,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A306" t="str">
         <f t="shared" ref="A306:F306" si="78">CONCATENATE("'",A305,"'",",")</f>
         <v>'0023',</v>
@@ -8659,7 +8720,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0023','0001','선입선출 방식','….','','Y','Open Order 순으로 처리');</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
         <v>462</v>
       </c>
@@ -8680,7 +8741,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" t="str">
         <f t="shared" ref="A309:F309" si="79">CONCATENATE("'",A308,"'",",")</f>
         <v>'0023',</v>
@@ -8714,7 +8775,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0023','0002','후입선출 방식','….','','Y','Open Order 역순으로 처리');</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
         <v>462</v>
       </c>
@@ -8735,7 +8796,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" t="str">
         <f t="shared" ref="A312:F312" si="80">CONCATENATE("'",A311,"'",",")</f>
         <v>'0023',</v>
@@ -8769,7 +8830,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0023','0003','마진우선 방식','….','','Y','만진 높은 순으로 처리');</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
         <v>462</v>
       </c>
@@ -8790,7 +8851,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" t="str">
         <f t="shared" ref="A315:F315" si="81">CONCATENATE("'",A314,"'",",")</f>
         <v>'0023',</v>
@@ -8824,7 +8885,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0023','0004','평균가 반환','….','','Y','평균Open가와 비교 방식,최종 Close 시 전체 계산');</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
         <v>462</v>
       </c>
@@ -8845,7 +8906,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" t="str">
         <f t="shared" ref="A318:F318" si="82">CONCATENATE("'",A317,"'",",")</f>
         <v>'0023',</v>
@@ -8879,7 +8940,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0023','0005','Close Order가','….','','Y','Close Order 금액 반화 후 , 최종 Close 시 전체 계산');</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
         <v>462</v>
       </c>
@@ -8898,7 +8959,7 @@
       </c>
       <c r="G320" s="1"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" t="str">
         <f t="shared" ref="A321:F321" si="83">CONCATENATE("'",A320,"'",",")</f>
         <v>'0023',</v>
@@ -8932,7 +8993,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0023','0006','….','….','','Y','');</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="2" t="s">
         <v>474</v>
       </c>
@@ -8949,7 +9010,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="3" t="str">
         <f>CONCATENATE("'",A323,"'",",")</f>
         <v>'0024',</v>
@@ -8972,7 +9033,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0024','TypeOfOrderRecord','OpenOrder 정열Type');</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
         <v>474</v>
       </c>
@@ -8991,7 +9052,7 @@
       </c>
       <c r="G326" s="1"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" t="str">
         <f t="shared" ref="A327:F327" si="84">CONCATENATE("'",A326,"'",",")</f>
         <v>'0024',</v>
@@ -9025,7 +9086,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0024','0001','선입선출 방식','FirstInFirstOut','','Y','');</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
         <v>474</v>
       </c>
@@ -9044,7 +9105,7 @@
       </c>
       <c r="G329" s="1"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" t="str">
         <f t="shared" ref="A330:F330" si="85">CONCATENATE("'",A329,"'",",")</f>
         <v>'0024',</v>
@@ -9078,7 +9139,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0024','0002','후입선출 방식','LastInFirstOut','','Y','');</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="1" t="s">
         <v>474</v>
       </c>
@@ -9097,7 +9158,7 @@
       </c>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" t="str">
         <f t="shared" ref="A333:F333" si="86">CONCATENATE("'",A332,"'",",")</f>
         <v>'0024',</v>
@@ -9131,7 +9192,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0024','0003','Big우선 방식','ProfitFirst','','Y','');</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
         <v>474</v>
       </c>
@@ -9150,7 +9211,7 @@
       </c>
       <c r="G335" s="1"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" t="str">
         <f t="shared" ref="A336:F336" si="87">CONCATENATE("'",A335,"'",",")</f>
         <v>'0024',</v>
@@ -9184,7 +9245,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0024','0004','Little우선 방식','ProfitLast','','Y','');</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A338" s="2" t="s">
         <v>98</v>
       </c>
@@ -9201,7 +9262,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A339" s="3" t="str">
         <f>CONCATENATE("'",A338,"'",",")</f>
         <v>'0025',</v>
@@ -9224,7 +9285,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0025','TypeOfPositonCloseOrder','Overnight초과시 Position Close 순서');</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A341" s="1" t="s">
         <v>98</v>
       </c>
@@ -9245,7 +9306,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A342" t="str">
         <f t="shared" ref="A342:F342" si="88">CONCATENATE("'",A341,"'",",")</f>
         <v>'0025',</v>
@@ -9279,7 +9340,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0025','0001','선입선출 방식','FirstInFirstOut','','Y','Position생성순으로 처리');</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A344" s="1" t="s">
         <v>98</v>
       </c>
@@ -9300,7 +9361,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A345" t="str">
         <f t="shared" ref="A345:F345" si="89">CONCATENATE("'",A344,"'",",")</f>
         <v>'0025',</v>
@@ -9334,7 +9395,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0025','0002','후입선출 방식','LastInFirstOut','','Y','Position생성 역순으로 처리');</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A347" s="1" t="s">
         <v>98</v>
       </c>
@@ -9355,7 +9416,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A348" t="str">
         <f t="shared" ref="A348:F348" si="90">CONCATENATE("'",A347,"'",",")</f>
         <v>'0025',</v>
@@ -9389,7 +9450,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0025','0003','마진우선','ProfitFirst','','Y','마진 많은 Position 우선처리');</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A350" s="1" t="s">
         <v>98</v>
       </c>
@@ -9410,7 +9471,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A351" t="str">
         <f t="shared" ref="A351:F351" si="91">CONCATENATE("'",A350,"'",",")</f>
         <v>'0025',</v>
@@ -9444,7 +9505,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0025','0004','손실우선','LostFirst','','Y','손실 많은 Position 우선처리');</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A353" s="2" t="s">
         <v>587</v>
       </c>
@@ -9461,7 +9522,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A354" s="3" t="str">
         <f>CONCATENATE("'",A353,"'",",")</f>
         <v>'0026',</v>
@@ -9484,7 +9545,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0026','StockInfoRecordType','주식정보갱신구분');</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
         <v>587</v>
       </c>
@@ -9503,7 +9564,7 @@
       </c>
       <c r="G356" s="1"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A357" t="str">
         <f t="shared" ref="A357:F357" si="92">CONCATENATE("'",A356,"'",",")</f>
         <v>'0026',</v>
@@ -9537,7 +9598,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0026','0001','장 시작','MarketOpen','','Y','');</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A359" s="1" t="s">
         <v>587</v>
       </c>
@@ -9556,7 +9617,7 @@
       </c>
       <c r="G359" s="1"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A360" t="str">
         <f t="shared" ref="A360:F360" si="93">CONCATENATE("'",A359,"'",",")</f>
         <v>'0026',</v>
@@ -9590,7 +9651,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0026','0002','거래시간','MarketTrading','','Y','');</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A362" s="1" t="s">
         <v>587</v>
       </c>
@@ -9609,7 +9670,7 @@
       </c>
       <c r="G362" s="1"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A363" t="str">
         <f t="shared" ref="A363:F363" si="94">CONCATENATE("'",A362,"'",",")</f>
         <v>'0026',</v>
@@ -9643,7 +9704,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0026','0003','장 마감','MarketClose','','Y','');</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A365" s="2" t="s">
         <v>589</v>
       </c>
@@ -9660,7 +9721,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A366" s="3" t="str">
         <f>CONCATENATE("'",A365,"'",",")</f>
         <v>'0027',</v>
@@ -9683,7 +9744,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0027','투자불가조건','GetMasterConstruction,GetMasterStockState');</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A368" s="1" t="s">
         <v>589</v>
       </c>
@@ -9704,7 +9765,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A369" t="str">
         <f t="shared" ref="A369:F369" si="95">CONCATENATE("'",A368,"'",",")</f>
         <v>'0027',</v>
@@ -9738,7 +9799,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0001','거래정지','거래정지','','Y','StockState-거래정지');</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A371" s="1" t="s">
         <v>589</v>
       </c>
@@ -9759,7 +9820,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A372" t="str">
         <f t="shared" ref="A372:F372" si="96">CONCATENATE("'",A371,"'",",")</f>
         <v>'0027',</v>
@@ -9793,7 +9854,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0002','관리종목','거래정지','','Y','StockState-관리종목');</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A374" s="1" t="s">
         <v>589</v>
       </c>
@@ -9814,7 +9875,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A375" t="str">
         <f t="shared" ref="A375:F375" si="97">CONCATENATE("'",A374,"'",",")</f>
         <v>'0027',</v>
@@ -9848,7 +9909,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0003','우선주','우선주','','Y','opt10017-우선주');</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A377" s="1" t="s">
         <v>589</v>
       </c>
@@ -9869,7 +9930,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A378" t="str">
         <f t="shared" ref="A378:F378" si="98">CONCATENATE("'",A377,"'",",")</f>
         <v>'0027',</v>
@@ -9903,7 +9964,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0004','정리매매','정리매매','','Y','StockState-정리매매');</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A380" s="1" t="s">
         <v>589</v>
       </c>
@@ -9924,7 +9985,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A381" t="str">
         <f t="shared" ref="A381:F381" si="99">CONCATENATE("'",A380,"'",",")</f>
         <v>'0027',</v>
@@ -9958,7 +10019,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0005','투자경고','투자경고','','Y','Construction-투자경고');</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A383" s="1" t="s">
         <v>589</v>
       </c>
@@ -9979,7 +10040,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A384" t="str">
         <f t="shared" ref="A384:F384" si="100">CONCATENATE("'",A383,"'",",")</f>
         <v>'0027',</v>
@@ -10013,7 +10074,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0006','투자주의','투자주의','','Y','Construction-투자주의');</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A386" s="1" t="s">
         <v>589</v>
       </c>
@@ -10034,7 +10095,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A387" t="str">
         <f t="shared" ref="A387:F387" si="101">CONCATENATE("'",A386,"'",",")</f>
         <v>'0027',</v>
@@ -10068,7 +10129,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0007','투자위험','투자위험','','Y','Construction-투자위험');</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A389" s="1" t="s">
         <v>589</v>
       </c>
@@ -10089,7 +10150,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A390" t="str">
         <f t="shared" ref="A390:F390" si="102">CONCATENATE("'",A389,"'",",")</f>
         <v>'0027',</v>
@@ -10123,7 +10184,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0008','투자주의환기','투자주의환기','','Y','Construction-투자주의환기');</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A392" s="1" t="s">
         <v>589</v>
       </c>
@@ -10144,7 +10205,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A393" t="str">
         <f t="shared" ref="A393:F393" si="103">CONCATENATE("'",A392,"'",",")</f>
         <v>'0027',</v>
@@ -10178,7 +10239,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0020','전일상한가 종목','전일상한가 종목','','Y','전일상한가 종목');</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A395" s="1" t="s">
         <v>589</v>
       </c>
@@ -10199,7 +10260,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A396" t="str">
         <f t="shared" ref="A396:F396" si="104">CONCATENATE("'",A395,"'",",")</f>
         <v>'0027',</v>
@@ -10233,7 +10294,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0021','전일하한가 종목','전일하한가 종목','','Y','전일하한가 종목');</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A398" s="1" t="s">
         <v>589</v>
       </c>
@@ -10254,7 +10315,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A399" t="str">
         <f t="shared" ref="A399:F399" si="105">CONCATENATE("'",A398,"'",",")</f>
         <v>'0027',</v>
@@ -10288,7 +10349,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0027','0030','임시관리 종목','임시관리 종목','','Y','각종 원임으로 임시관리 종목');</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A401" s="2" t="s">
         <v>591</v>
       </c>
@@ -10305,7 +10366,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A402" s="3" t="str">
         <f>CONCATENATE("'",A401,"'",",")</f>
         <v>'0028',</v>
@@ -10328,7 +10389,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0028','LimitByRefQuotation','전일시세조근으로 거래 정지관리');</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A404" s="1" t="s">
         <v>591</v>
       </c>
@@ -10349,7 +10410,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A405" t="str">
         <f t="shared" ref="A405:F405" si="106">CONCATENATE("'",A404,"'",",")</f>
         <v>'0028',</v>
@@ -10383,7 +10444,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0001','상한가','상한가','','Y','전일상한가 초과');</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A407" s="1" t="s">
         <v>591</v>
       </c>
@@ -10404,7 +10465,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A408" t="str">
         <f t="shared" ref="A408:F408" si="107">CONCATENATE("'",A407,"'",",")</f>
         <v>'0028',</v>
@@ -10438,7 +10499,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0002','하한가','하한가','','Y','전일하한가 초과');</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A410" s="1" t="s">
         <v>591</v>
       </c>
@@ -10459,7 +10520,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A411" t="str">
         <f t="shared" ref="A411:F411" si="108">CONCATENATE("'",A410,"'",",")</f>
         <v>'0028',</v>
@@ -10493,7 +10554,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0003','거래량미달','거래량미달','','Y','전일거래량 미달');</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A413" s="1" t="s">
         <v>591</v>
       </c>
@@ -10514,7 +10575,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A414" t="str">
         <f t="shared" ref="A414:F414" si="109">CONCATENATE("'",A413,"'",",")</f>
         <v>'0028',</v>
@@ -10548,7 +10609,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0028','0004','거래대금미달','거래대금미달','','Y','전일거래대금 미달');</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A416" s="2" t="s">
         <v>593</v>
       </c>
@@ -10565,7 +10626,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A417" s="3" t="str">
         <f>CONCATENATE("'",A416,"'",",")</f>
         <v>'0029',</v>
@@ -10588,7 +10649,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0029','LimitByCurQuotation','당일시세조근으로 거래 정지관리');</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A419" s="1" t="s">
         <v>593</v>
       </c>
@@ -10609,7 +10670,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A420" t="str">
         <f t="shared" ref="A420:F420" si="110">CONCATENATE("'",A419,"'",",")</f>
         <v>'0029',</v>
@@ -10643,7 +10704,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0001','상한가','상한가','','Y','당일상한가 초과');</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A422" s="1" t="s">
         <v>593</v>
       </c>
@@ -10664,7 +10725,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A423" t="str">
         <f t="shared" ref="A423:F423" si="111">CONCATENATE("'",A422,"'",",")</f>
         <v>'0029',</v>
@@ -10698,7 +10759,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0002','하한가','하한가','','Y','당일하한가 초과');</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A425" s="1" t="s">
         <v>593</v>
       </c>
@@ -10719,7 +10780,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A426" t="str">
         <f t="shared" ref="A426:F426" si="112">CONCATENATE("'",A425,"'",",")</f>
         <v>'0029',</v>
@@ -10753,7 +10814,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0003','거래량미달','거래량미달','','Y','당일거래량 미달');</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A428" s="1" t="s">
         <v>593</v>
       </c>
@@ -10774,7 +10835,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A429" t="str">
         <f t="shared" ref="A429:F429" si="113">CONCATENATE("'",A428,"'",",")</f>
         <v>'0029',</v>
@@ -10808,7 +10869,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0029','0004','거래대금미달','거래대금미달','','Y','당일거래대금 미달');</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A431" s="2" t="s">
         <v>99</v>
       </c>
@@ -10825,7 +10886,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A432" s="3" t="str">
         <f>CONCATENATE("'",A431,"'",",")</f>
         <v>'0030',</v>
@@ -10848,7 +10909,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0030','ColumnType','입력 값유행');</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A434" s="1" t="s">
         <v>99</v>
       </c>
@@ -10867,7 +10928,7 @@
       </c>
       <c r="G434" s="1"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A435" t="str">
         <f t="shared" ref="A435:F435" si="114">CONCATENATE("'",A434,"'",",")</f>
         <v>'0030',</v>
@@ -10901,7 +10962,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0001','숫자형','Number','','Y','');</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A437" s="1" t="s">
         <v>99</v>
       </c>
@@ -10920,7 +10981,7 @@
       </c>
       <c r="G437" s="1"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A438" t="str">
         <f t="shared" ref="A438:F438" si="115">CONCATENATE("'",A437,"'",",")</f>
         <v>'0030',</v>
@@ -10954,7 +11015,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0002','문자','Text','','Y','');</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A440" s="1" t="s">
         <v>99</v>
       </c>
@@ -10973,7 +11034,7 @@
       </c>
       <c r="G440" s="1"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A441" t="str">
         <f t="shared" ref="A441:F441" si="116">CONCATENATE("'",A440,"'",",")</f>
         <v>'0030',</v>
@@ -11007,7 +11068,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0003','돈','Money','','Y','');</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A443" s="1" t="s">
         <v>99</v>
       </c>
@@ -11026,7 +11087,7 @@
       </c>
       <c r="G443" s="1"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A444" t="str">
         <f t="shared" ref="A444:F444" si="117">CONCATENATE("'",A443,"'",",")</f>
         <v>'0030',</v>
@@ -11060,7 +11121,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0004','YN','YN','','Y','');</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A446" s="1" t="s">
         <v>99</v>
       </c>
@@ -11079,7 +11140,7 @@
       </c>
       <c r="G446" s="1"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A447" t="str">
         <f t="shared" ref="A447:F447" si="118">CONCATENATE("'",A446,"'",",")</f>
         <v>'0030',</v>
@@ -11113,7 +11174,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0030','0005','코드','Code','','Y','');</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A449" s="2" t="s">
         <v>596</v>
       </c>
@@ -11130,7 +11191,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A450" s="3" t="str">
         <f>CONCATENATE("'",A449,"'",",")</f>
         <v>'0031',</v>
@@ -11153,7 +11214,7 @@
         <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0031','CloseBrrwType','Brrw의 Position Close 시 처리 방식');</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A452" s="1" t="s">
         <v>596</v>
       </c>
@@ -11174,7 +11235,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A453" t="str">
         <f t="shared" ref="A453:F453" si="119">CONCATENATE("'",A452,"'",",")</f>
         <v>'0031',</v>
@@ -11208,7 +11269,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0031','0001','전PostionClose','All Position','','Y','미 시행 Open Order 최소처리,전Postion 반대매매');</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A455" s="1" t="s">
         <v>596</v>
       </c>
@@ -11229,7 +11290,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A456" t="str">
         <f t="shared" ref="A456:F456" si="120">CONCATENATE("'",A455,"'",",")</f>
         <v>'0031',</v>
@@ -11263,14 +11324,16 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0031','0002','OverNight초과','OverNight','','Y','OverNig초과 부분 반대매매');</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A458" s="2" t="s">
         <v>598</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="C458" s="2"/>
+      <c r="C458" s="17" t="s">
+        <v>803</v>
+      </c>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
@@ -11278,7 +11341,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A459" s="3" t="str">
         <f>CONCATENATE("'",A458,"'",",")</f>
         <v>'0032',</v>
@@ -11289,7 +11352,7 @@
       </c>
       <c r="C459" s="3" t="str">
         <f>CONCATENATE("'",C458,"'")</f>
-        <v>''</v>
+        <v>'预埋单类型'</v>
       </c>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -11298,10 +11361,10 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3" t="str">
         <f>CONCATENATE($I$1,A459,B459,C459,D459,E459,F459,G459,H459,");")</f>
-        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0032','PreOrderCrossType','');</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0032','PreOrderCrossType','预埋单类型');</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A461" s="1" t="s">
         <v>598</v>
       </c>
@@ -11322,7 +11385,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A462" t="str">
         <f t="shared" ref="A462:F462" si="121">CONCATENATE("'",A461,"'",",")</f>
         <v>'0032',</v>
@@ -11356,7 +11419,7 @@
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0032','0001','가격초과','Price Higher','','Y','지정가격 초과 시 반대매매');</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A464" s="1" t="s">
         <v>598</v>
       </c>
@@ -11377,7 +11440,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A465" t="str">
         <f t="shared" ref="A465:F465" si="122">CONCATENATE("'",A464,"'",",")</f>
         <v>'0032',</v>
@@ -11409,6 +11472,205 @@
       <c r="I465" t="str">
         <f>CONCATENATE($I$2,A465,B465,C465,D465,E465,F465,G465,H465,");")</f>
         <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0032','0002','가격낮음','Price Lower','','Y','지정낮은 경우 시 반대매매');</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A467" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D467" s="2"/>
+      <c r="E467" s="2"/>
+      <c r="F467" s="2"/>
+      <c r="G467" s="3"/>
+      <c r="H467" s="3"/>
+      <c r="I467" s="3"/>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A468" s="3" t="str">
+        <f>CONCATENATE("'",A467,"'",",")</f>
+        <v>'0033',</v>
+      </c>
+      <c r="B468" s="3" t="str">
+        <f>CONCATENATE("'",B467,"'",",")</f>
+        <v>'UserStatus',</v>
+      </c>
+      <c r="C468" s="3" t="str">
+        <f>CONCATENATE("'",C467,"'")</f>
+        <v>'사용자관리상태'</v>
+      </c>
+      <c r="D468" s="3"/>
+      <c r="E468" s="3"/>
+      <c r="F468" s="3"/>
+      <c r="G468" s="3"/>
+      <c r="H468" s="3"/>
+      <c r="I468" s="3" t="str">
+        <f>CONCATENATE($I$1,A468,B468,C468,D468,E468,F468,G468,H468,");")</f>
+        <v>INSERT INTO CodeGroup (GroupId,GroupName,Memo) VALUES ('0033','UserStatus','사용자관리상태');</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A470" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D470" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="E470" s="1"/>
+      <c r="F470" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A471" t="str">
+        <f t="shared" ref="A471:F471" si="123">CONCATENATE("'",A470,"'",",")</f>
+        <v>'0033',</v>
+      </c>
+      <c r="B471" t="str">
+        <f t="shared" si="123"/>
+        <v>'0001',</v>
+      </c>
+      <c r="C471" t="str">
+        <f t="shared" si="123"/>
+        <v>'정상',</v>
+      </c>
+      <c r="D471" t="str">
+        <f t="shared" si="123"/>
+        <v>'Usable',</v>
+      </c>
+      <c r="E471" t="str">
+        <f t="shared" si="123"/>
+        <v>'',</v>
+      </c>
+      <c r="F471" t="str">
+        <f t="shared" si="123"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G471" t="str">
+        <f>CONCATENATE("'",G470,"'",)</f>
+        <v>''</v>
+      </c>
+      <c r="I471" t="str">
+        <f>CONCATENATE($I$2,A471,B471,C471,D471,E471,F471,G471,H471,");")</f>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0033','0001','정상','Usable','','Y','');</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A473" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E473" s="1"/>
+      <c r="F473" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A474" t="str">
+        <f t="shared" ref="A474:F474" si="124">CONCATENATE("'",A473,"'",",")</f>
+        <v>'0033',</v>
+      </c>
+      <c r="B474" t="str">
+        <f t="shared" si="124"/>
+        <v>'0002',</v>
+      </c>
+      <c r="C474" t="str">
+        <f t="shared" si="124"/>
+        <v>'사용불가',</v>
+      </c>
+      <c r="D474" t="str">
+        <f t="shared" si="124"/>
+        <v>'Locked',</v>
+      </c>
+      <c r="E474" t="str">
+        <f t="shared" si="124"/>
+        <v>'',</v>
+      </c>
+      <c r="F474" t="str">
+        <f t="shared" si="124"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G474" t="str">
+        <f>CONCATENATE("'",G473,"'",)</f>
+        <v>''</v>
+      </c>
+      <c r="I474" t="str">
+        <f>CONCATENATE($I$2,A474,B474,C474,D474,E474,F474,G474,H474,");")</f>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0033','0002','사용불가','Locked','','Y','');</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A476" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E476" s="1"/>
+      <c r="F476" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A477" t="str">
+        <f t="shared" ref="A477:F477" si="125">CONCATENATE("'",A476,"'",",")</f>
+        <v>'0033',</v>
+      </c>
+      <c r="B477" t="str">
+        <f t="shared" si="125"/>
+        <v>'0003',</v>
+      </c>
+      <c r="C477" t="str">
+        <f t="shared" si="125"/>
+        <v>'패기',</v>
+      </c>
+      <c r="D477" t="str">
+        <f t="shared" si="125"/>
+        <v>'Deleted',</v>
+      </c>
+      <c r="E477" t="str">
+        <f t="shared" si="125"/>
+        <v>'',</v>
+      </c>
+      <c r="F477" t="str">
+        <f t="shared" si="125"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G477" t="str">
+        <f>CONCATENATE("'",G476,"'",)</f>
+        <v>''</v>
+      </c>
+      <c r="I477" t="str">
+        <f>CONCATENATE($I$2,A477,B477,C477,D477,E477,F477,G477,H477,");")</f>
+        <v>INSERT INTO CodeInfo (CodeGroupId,CodeID,CodeKr,CodeEn,Value,Active,Memo) VALUES ('0033','0003','패기','Deleted','','Y','');</v>
       </c>
     </row>
   </sheetData>
@@ -11426,14 +11688,14 @@
       <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>543</v>
       </c>
@@ -11451,7 +11713,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES (</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>555</v>
       </c>
@@ -11467,7 +11729,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <f>CONCATENATE("'",A5,"'",",")</f>
         <v>'0200',</v>
@@ -11489,7 +11751,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0200','DB(Update) 작업 시 Error 발생 하였습니다.운영자에게 확인 바랍니다','','');</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>546</v>
       </c>
@@ -11505,7 +11767,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f>CONCATENATE("'",A8,"'",",")</f>
         <v>'0000',</v>
@@ -11523,7 +11785,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','처리완료 하였습니다','');</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -11539,7 +11801,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f>CONCATENATE("'",A11,"'",",")</f>
         <v>'0001',</v>
@@ -11557,7 +11819,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0001','No Data Select Error 발생.Select Into SQL 확인 바랍니다','');</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -11573,7 +11835,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
         <f>CONCATENATE("'",A14,"'",",")</f>
         <v>'0002',</v>
@@ -11591,7 +11853,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0002','사용자의 유효성 점검 바랍니다','');</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -11607,7 +11869,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
         <f>CONCATENATE("'",A17,"'",",")</f>
         <v>'0003',</v>
@@ -11625,7 +11887,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0003','사용불가 대출입니다. 다시확인 바랍니다','');</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -11641,7 +11903,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
         <f>CONCATENATE("'",A20,"'",",")</f>
         <v>'0004',</v>
@@ -11659,7 +11921,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0004','일회 최소충전금액 미달 하였습니다.','');</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -11675,7 +11937,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
         <f>CONCATENATE("'",A23,"'",",")</f>
         <v>'0005',</v>
@@ -11693,7 +11955,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0005','일회 최대충전금액 초과 하였습니다.','');</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -11709,7 +11971,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
         <f>CONCATENATE("'",A26,"'",",")</f>
         <v>'0006',</v>
@@ -11727,7 +11989,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0006','비 운영시간에 입출금 신청 불가 합니다 .양해 부특 드립니다','');</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -11743,7 +12005,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
         <f>CONCATENATE("'",A29,"'",",")</f>
         <v>'0007',</v>
@@ -11761,7 +12023,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0007','고객과은행 정보 일치 하지 않습니다','');</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -11777,7 +12039,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
         <f>CONCATENATE("'",A32,"'",",")</f>
         <v>'0008',</v>
@@ -11795,7 +12057,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0008','입금계정 틀렸습니다.관리자에게 확인 바랍니다','');</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -11811,7 +12073,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
         <f>CONCATENATE("'",A35,"'",",")</f>
         <v>'0009',</v>
@@ -11829,7 +12091,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0009','비 정상관리자입니다','');</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>95</v>
       </c>
@@ -11845,7 +12107,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
         <f>CONCATENATE("'",A38,"'",",")</f>
         <v>'0010',</v>
@@ -11863,7 +12125,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0010','입금요청금액과 승인금액 동일 하지 않습니다','');</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>157</v>
       </c>
@@ -11879,7 +12141,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
         <f>CONCATENATE("'",A41,"'",",")</f>
         <v>'0011',</v>
@@ -11897,7 +12159,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0011','이미처리 되 입금요청은 재 처리 불가 합니다','');</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>158</v>
       </c>
@@ -11913,7 +12175,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
         <f>CONCATENATE("'",A44,"'",",")</f>
         <v>'0012',</v>
@@ -11931,7 +12193,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0012','해당 입금요청 정보준제 하지 않습니다','');</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>213</v>
       </c>
@@ -11947,7 +12209,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
         <f>CONCATENATE("'",A47,"'",",")</f>
         <v>'0013',</v>
@@ -11965,7 +12227,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0013','입금요청의상태가[요청] 만 거불 할수 있습니다','');</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>220</v>
       </c>
@@ -11981,7 +12243,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
         <f>CONCATENATE("'",A50,"'",",")</f>
         <v>'0014',</v>
@@ -11999,7 +12261,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0014','거부/승인 된 입금요청만 Rollback 가능 합니다','');</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
@@ -12015,7 +12277,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
         <f>CONCATENATE("'",A53,"'",",")</f>
         <v>'0015',</v>
@@ -12033,7 +12295,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0015','원금이 부족 하여 대출신청 불가 합니다 .다시 확인 바랍니다','');</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>239</v>
       </c>
@@ -12049,7 +12311,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" t="str">
         <f>CONCATENATE("'",A56,"'",",")</f>
         <v>'0016',</v>
@@ -12067,7 +12329,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0016','대출율과 대출Code 일치 하지 않고 미 적용 상태 입니다','');</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>253</v>
       </c>
@@ -12083,7 +12345,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="str">
         <f>CONCATENATE("'",A59,"'",",")</f>
         <v>'0017',</v>
@@ -12101,7 +12363,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0017','고객 허용대출 숫 초과 하였습니다','');</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>308</v>
       </c>
@@ -12117,7 +12379,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" t="str">
         <f>CONCATENATE("'",A62,"'",",")</f>
         <v>'0018',</v>
@@ -12135,7 +12397,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0018','고객VIP등급의  허용 최대대출율 초과 하였습니다','');</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>388</v>
       </c>
@@ -12151,7 +12413,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" t="str">
         <f>CONCATENATE("'",A65,"'",",")</f>
         <v>'0019',</v>
@@ -12169,7 +12431,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0019','고객VIP등급의  허용 최대대출금액 초과 하였습니다! ','');</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>97</v>
       </c>
@@ -12185,7 +12447,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="str">
         <f>CONCATENATE("'",A68,"'",",")</f>
         <v>'0020',</v>
@@ -12203,7 +12465,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0020','일회 최소대출신청금액 미달 하였습니다 ! ','');</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>443</v>
       </c>
@@ -12219,7 +12481,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="str">
         <f>CONCATENATE("'",A71,"'",",")</f>
         <v>'0021',</v>
@@ -12237,7 +12499,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0021','대출금액 계산 오류 있음.대출금 = 담보금*대출율','');</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>455</v>
       </c>
@@ -12253,7 +12515,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="str">
         <f>CONCATENATE("'",A74,"'",",")</f>
         <v>'0022',</v>
@@ -12271,7 +12533,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0022','사용중의 대출 조회 시 Error 발생 하였습니다','');</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>462</v>
       </c>
@@ -12287,7 +12549,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="str">
         <f>CONCATENATE("'",A77,"'",",")</f>
         <v>'0023',</v>
@@ -12305,7 +12567,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0023','해당시장의 정보가 없습니다.','');</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>474</v>
       </c>
@@ -12321,7 +12583,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="str">
         <f>CONCATENATE("'",A80,"'",",")</f>
         <v>'0024',</v>
@@ -12339,7 +12601,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0024','매수/매도 Code 잘못 되있습니다.확인 바랍니다','');</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>98</v>
       </c>
@@ -12355,7 +12617,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="str">
         <f>CONCATENATE("'",A83,"'",",")</f>
         <v>'0025',</v>
@@ -12373,7 +12635,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0025','거래 방식Code 잘못 되있습니다.지정가/시장가 만 지원 합니다','');</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>587</v>
       </c>
@@ -12389,7 +12651,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="str">
         <f>CONCATENATE("'",A86,"'",",")</f>
         <v>'0026',</v>
@@ -12407,7 +12669,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0026','포지션 Code 잘못 되있습니다.확인 바랍니다','');</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>589</v>
       </c>
@@ -12423,7 +12685,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="str">
         <f>CONCATENATE("'",A89,"'",",")</f>
         <v>'0027',</v>
@@ -12441,7 +12703,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0027','주문반식Code 잘못 되있습니다.확인 바랍니다','');</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>591</v>
       </c>
@@ -12457,7 +12719,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="str">
         <f>CONCATENATE("'",A92,"'",",")</f>
         <v>'0028',</v>
@@ -12475,7 +12737,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0028','주문가은 필수 입력항목입니다','');</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>593</v>
       </c>
@@ -12491,7 +12753,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" t="str">
         <f>CONCATENATE("'",A95,"'",",")</f>
         <v>'0029',</v>
@@ -12509,7 +12771,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0029','주문량은 필수 입력항목입니다','');</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -12525,7 +12787,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" t="str">
         <f>CONCATENATE("'",A98,"'",",")</f>
         <v>'0030',</v>
@@ -12543,7 +12805,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0030','비 거래시간 입니다','');</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>596</v>
       </c>
@@ -12559,7 +12821,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" t="str">
         <f>CONCATENATE("'",A101,"'",",")</f>
         <v>'0031',</v>
@@ -12577,7 +12839,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0031','거리불가 Market입니다,관리자에게 확인 바랍니다','');</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>598</v>
       </c>
@@ -12593,7 +12855,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" t="str">
         <f>CONCATENATE("'",A104,"'",",")</f>
         <v>'0032',</v>
@@ -12611,7 +12873,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0032','거래불가중목입니다','');</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>600</v>
       </c>
@@ -12627,7 +12889,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" t="str">
         <f>CONCATENATE("'",A107,"'",",")</f>
         <v>'0033',</v>
@@ -12645,7 +12907,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0033','휴장으로 인해 거래불가합니다','');</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>602</v>
       </c>
@@ -12661,7 +12923,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" t="str">
         <f>CONCATENATE("'",A110,"'",",")</f>
         <v>'0034',</v>
@@ -12679,7 +12941,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0034','거래제한 중목입니다','');</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>604</v>
       </c>
@@ -12695,7 +12957,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="str">
         <f>CONCATENATE("'",A113,"'",",")</f>
         <v>'0035',</v>
@@ -12713,7 +12975,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0035','해당대출 정보 없습니다','');</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>607</v>
       </c>
@@ -12729,7 +12991,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" t="str">
         <f>CONCATENATE("'",A116,"'",",")</f>
         <v>'0036',</v>
@@ -12747,7 +13009,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0036','거래중목에 허용하지않은 대출율 입니다','');</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>608</v>
       </c>
@@ -12763,7 +13025,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" t="str">
         <f>CONCATENATE("'",A119,"'",",")</f>
         <v>'0037',</v>
@@ -12781,7 +13043,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0037','공매매 거래 불가 합니다','');</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>611</v>
       </c>
@@ -12797,7 +13059,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" t="str">
         <f>CONCATENATE("'",A122,"'",",")</f>
         <v>'0038',</v>
@@ -12815,7 +13077,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0038','공매매 거래 불가 시장입니다','');</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>612</v>
       </c>
@@ -12831,7 +13093,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" t="str">
         <f>CONCATENATE("'",A125,"'",",")</f>
         <v>'0039',</v>
@@ -12849,7 +13111,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0039','공매매 거래 불가 중목입니다','');</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>614</v>
       </c>
@@ -12865,7 +13127,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" t="str">
         <f>CONCATENATE("'",A128,"'",",")</f>
         <v>'0040',</v>
@@ -12883,7 +13145,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0040','고객님의 VIP 등급부족으로 공매매 허용 불가','');</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>616</v>
       </c>
@@ -12899,7 +13161,7 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132" t="str">
         <f>CONCATENATE("'",A131,"'",",")</f>
         <v>'0041',</v>
@@ -12917,7 +13179,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0041','가용금액 부족','');</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>618</v>
       </c>
@@ -12933,7 +13195,7 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135" t="str">
         <f>CONCATENATE("'",A134,"'",",")</f>
         <v>'0042',</v>
@@ -12951,7 +13213,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0042','가용마진 부족으로 마진 투자불가 합니다','');</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>620</v>
       </c>
@@ -12967,7 +13229,7 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A138" t="str">
         <f>CONCATENATE("'",A137,"'",",")</f>
         <v>'0043',</v>
@@ -12985,7 +13247,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0043','가용중묵 포지션 수량 부족.재 확인바랍니다','');</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>622</v>
       </c>
@@ -13001,7 +13263,7 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A141" t="str">
         <f>CONCATENATE("'",A140,"'",",")</f>
         <v>'0044',</v>
@@ -13019,7 +13281,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0044','주문처리대기Order 만거부/취소 처리가능 합니다','');</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>624</v>
       </c>
@@ -13035,7 +13297,7 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A144" t="str">
         <f>CONCATENATE("'",A143,"'",",")</f>
         <v>'0045',</v>
@@ -13053,7 +13315,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0045','해당주분정보가 없습니다. 다시확인 바랍니다','');</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>626</v>
       </c>
@@ -13069,7 +13331,7 @@
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A147" t="str">
         <f>CONCATENATE("'",A146,"'",",")</f>
         <v>'0046',</v>
@@ -13087,7 +13349,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0046','주문처리대기Order 만거부/취소 처리가능 합니다','');</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>627</v>
       </c>
@@ -13103,7 +13365,7 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A150" t="str">
         <f>CONCATENATE("'",A149,"'",",")</f>
         <v>'0047',</v>
@@ -13121,7 +13383,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0047','고객집적 주문Order만 취소 처리가능 합니다','');</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>628</v>
       </c>
@@ -13137,7 +13399,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A153" t="str">
         <f>CONCATENATE("'",A152,"'",",")</f>
         <v>'0048',</v>
@@ -13155,7 +13417,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0048','요청자ID와 Order소요자 일지 하지않습니다','');</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>631</v>
       </c>
@@ -13171,7 +13433,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A156" t="str">
         <f>CONCATENATE("'",A155,"'",",")</f>
         <v>'0049',</v>
@@ -13189,7 +13451,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0049','OrderTrans 이미 준제 합니다. 한 Order대해 2분 처리불가 합니다','');</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>100</v>
       </c>
@@ -13205,7 +13467,7 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A159" t="str">
         <f>CONCATENATE("'",A158,"'",",")</f>
         <v>'0050',</v>
@@ -13223,7 +13485,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0050','해당Position 정부가 없습니다','');</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>634</v>
       </c>
@@ -13239,7 +13501,7 @@
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A162" t="str">
         <f>CONCATENATE("'",A161,"'",",")</f>
         <v>'0051',</v>
@@ -13257,7 +13519,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0051','해당조건의 2개 이상 Position 준제합니다','');</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>637</v>
       </c>
@@ -13273,7 +13535,7 @@
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A165" t="str">
         <f>CONCATENATE("'",A164,"'",",")</f>
         <v>'0052',</v>
@@ -13291,7 +13553,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0052','Order정보없습니다. Order ID 확인 바랍니다','');</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>639</v>
       </c>
@@ -13307,7 +13569,7 @@
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A168" t="str">
         <f>CONCATENATE("'",A167,"'",",")</f>
         <v>'0053',</v>
@@ -13325,7 +13587,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0053','고객요청order는 거래시간(장내)내에 만 실행 가능 합니다','');</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>641</v>
       </c>
@@ -13341,7 +13603,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A171" t="str">
         <f>CONCATENATE("'",A170,"'",",")</f>
         <v>'0054',</v>
@@ -13359,7 +13621,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0054','해당Order는 거래제한으로 거부처리 하였습니다','');</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>643</v>
       </c>
@@ -13375,7 +13637,7 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A174" t="str">
         <f>CONCATENATE("'",A173,"'",",")</f>
         <v>'0055',</v>
@@ -13393,7 +13655,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0055','OrderTrans 이미 준제 합니다. 한 Order대해 이중 처리불가 합니다','');</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>645</v>
       </c>
@@ -13409,7 +13671,7 @@
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>645</v>
       </c>
@@ -13426,7 +13688,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES (0056'대당중목에 가격 정보가 없습니다','');</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>647</v>
       </c>
@@ -13442,7 +13704,7 @@
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A180" t="str">
         <f>CONCATENATE("'",A179,"'",",")</f>
         <v>'0057',</v>
@@ -13460,7 +13722,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0057','오래된가격 정보 입니다. 가격 정보 갱신 후 재처리 합니다','');</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>655</v>
       </c>
@@ -13476,7 +13738,7 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A183" t="str">
         <f>CONCATENATE("'",A182,"'",",")</f>
         <v>'0058',</v>
@@ -13494,7 +13756,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0058','체결가격 미달','');</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>659</v>
       </c>
@@ -13510,7 +13772,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A186" t="str">
         <f>CONCATENATE("'",A185,"'",",")</f>
         <v>'0059',</v>
@@ -13528,7 +13790,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0059','해당 대출은 고객의 대출 아닙니다','');</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>661</v>
       </c>
@@ -13544,7 +13806,7 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A189" t="str">
         <f>CONCATENATE("'",A188,"'",",")</f>
         <v>'0060',</v>
@@ -13562,7 +13824,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0060','다른 프로세스에서 BALANCE 처러 하고 있음','');</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>546</v>
       </c>
@@ -13578,7 +13840,7 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A192" t="str">
         <f>CONCATENATE("'",A191,"'",",")</f>
         <v>'0000',</v>
@@ -13596,7 +13858,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>546</v>
       </c>
@@ -13612,7 +13874,7 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A195" t="str">
         <f>CONCATENATE("'",A194,"'",",")</f>
         <v>'0000',</v>
@@ -13630,7 +13892,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>546</v>
       </c>
@@ -13646,7 +13908,7 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A198" t="str">
         <f>CONCATENATE("'",A197,"'",",")</f>
         <v>'0000',</v>
@@ -13664,7 +13926,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>546</v>
       </c>
@@ -13680,7 +13942,7 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A201" t="str">
         <f>CONCATENATE("'",A200,"'",",")</f>
         <v>'0000',</v>
@@ -13698,7 +13960,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>546</v>
       </c>
@@ -13714,7 +13976,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A204" t="str">
         <f>CONCATENATE("'",A203,"'",",")</f>
         <v>'0000',</v>
@@ -13732,7 +13994,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>546</v>
       </c>
@@ -13748,7 +14010,7 @@
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A207" t="str">
         <f>CONCATENATE("'",A206,"'",",")</f>
         <v>'0000',</v>
@@ -13766,7 +14028,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>546</v>
       </c>
@@ -13782,7 +14044,7 @@
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A210" t="str">
         <f>CONCATENATE("'",A209,"'",",")</f>
         <v>'0000',</v>
@@ -13800,7 +14062,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>546</v>
       </c>
@@ -13816,7 +14078,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A213" t="str">
         <f>CONCATENATE("'",A212,"'",",")</f>
         <v>'0000',</v>
@@ -13834,7 +14096,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>546</v>
       </c>
@@ -13850,7 +14112,7 @@
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A216" t="str">
         <f>CONCATENATE("'",A215,"'",",")</f>
         <v>'0000',</v>
@@ -13868,7 +14130,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>546</v>
       </c>
@@ -13884,7 +14146,7 @@
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A219" t="str">
         <f>CONCATENATE("'",A218,"'",",")</f>
         <v>'0000',</v>
@@ -13902,7 +14164,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>546</v>
       </c>
@@ -13918,7 +14180,7 @@
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A222" t="str">
         <f>CONCATENATE("'",A221,"'",",")</f>
         <v>'0000',</v>
@@ -13936,7 +14198,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>546</v>
       </c>
@@ -13952,7 +14214,7 @@
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A225" t="str">
         <f>CONCATENATE("'",A224,"'",",")</f>
         <v>'0000',</v>
@@ -13970,7 +14232,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>546</v>
       </c>
@@ -13986,7 +14248,7 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A228" t="str">
         <f>CONCATENATE("'",A227,"'",",")</f>
         <v>'0000',</v>
@@ -14004,7 +14266,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>546</v>
       </c>
@@ -14020,7 +14282,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A231" t="str">
         <f>CONCATENATE("'",A230,"'",",")</f>
         <v>'0000',</v>
@@ -14038,7 +14300,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>546</v>
       </c>
@@ -14054,7 +14316,7 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A234" t="str">
         <f>CONCATENATE("'",A233,"'",",")</f>
         <v>'0000',</v>
@@ -14072,7 +14334,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>546</v>
       </c>
@@ -14088,7 +14350,7 @@
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A237" t="str">
         <f>CONCATENATE("'",A236,"'",",")</f>
         <v>'0000',</v>
@@ -14106,7 +14368,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>546</v>
       </c>
@@ -14122,7 +14384,7 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A240" t="str">
         <f>CONCATENATE("'",A239,"'",",")</f>
         <v>'0000',</v>
@@ -14140,7 +14402,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>546</v>
       </c>
@@ -14156,7 +14418,7 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A243" t="str">
         <f>CONCATENATE("'",A242,"'",",")</f>
         <v>'0000',</v>
@@ -14174,7 +14436,7 @@
         <v>INSERT INTO ErrorCode (CodeId,CodeKr,CodeEn,CodeCn) VALUES ('0000','ㅋㅋㅋ','');</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>546</v>
       </c>
@@ -14190,7 +14452,7 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A246" t="str">
         <f>CONCATENATE("'",A245,"'",",")</f>
         <v>'0000',</v>
@@ -14223,23 +14485,23 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="24.59765625" customWidth="1"/>
     <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.3984375" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>252</v>
       </c>
@@ -14281,7 +14543,7 @@
         <v>INSERT INTO Market (MarketId,CntryId,CntryEn,BourseId,CntryKo,BourseEn,BourseKo,MarketKo,MarketEn,ShortSellAllow,TimeZone,Active) VALUES (</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -14319,7 +14581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f t="shared" ref="A4:K4" si="0">CONCATENATE("'",A3,"'",",")</f>
         <v>'10',</v>
@@ -14373,7 +14635,7 @@
         <v>INSERT INTO Market (MarketId,CntryId,CntryEn,BourseId,CntryKo,BourseEn,BourseKo,MarketKo,MarketEn,ShortSellAllow,TimeZone,Active) VALUES ('10','0001','Korea','KRX','한국','Korea Stock Exchange','한국증권거래소','코스피','KOSPI','Y','9','Y');</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -14411,7 +14673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f t="shared" ref="A7:K7" si="1">CONCATENATE("'",A6,"'",",")</f>
         <v>'11',</v>
@@ -14465,7 +14727,7 @@
         <v>INSERT INTO Market (MarketId,CntryId,CntryEn,BourseId,CntryKo,BourseEn,BourseKo,MarketKo,MarketEn,ShortSellAllow,TimeZone,Active) VALUES ('11','0001','Korea','KRX','한국','Korea Stock Exchange','한국증권거래소','코스닥','KOSDAQ','N','9','Y');</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -14503,7 +14765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f t="shared" ref="A10:K10" si="2">CONCATENATE("'",A9,"'",",")</f>
         <v>'12',</v>
@@ -14557,7 +14819,7 @@
         <v>INSERT INTO Market (MarketId,CntryId,CntryEn,BourseId,CntryKo,BourseEn,BourseKo,MarketKo,MarketEn,ShortSellAllow,TimeZone,Active) VALUES ('12','0001','Korea','KRX','한국','Korea Stock Exchange','한국증권거래소','ETF','ETF','N','9','Y');</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -14595,7 +14857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f t="shared" ref="A13:K13" si="3">CONCATENATE("'",A12,"'",",")</f>
         <v>'18',</v>
@@ -14649,7 +14911,7 @@
         <v>INSERT INTO Market (MarketId,CntryId,CntryEn,BourseId,CntryKo,BourseEn,BourseKo,MarketKo,MarketEn,ShortSellAllow,TimeZone,Active) VALUES ('18','0001','Korea','Bithumb','한국','Bithumb Crypto Exchange','Bithumb 암호화폐거래소','Bithumb(원화)','Bithumb(KRW)','N','9','N');</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -14687,7 +14949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f t="shared" ref="A16:K16" si="4">CONCATENATE("'",A15,"'",",")</f>
         <v>'20',</v>
@@ -14741,7 +15003,7 @@
         <v>INSERT INTO Market (MarketId,CntryId,CntryEn,BourseId,CntryKo,BourseEn,BourseKo,MarketKo,MarketEn,ShortSellAllow,TimeZone,Active) VALUES ('20','0002','China','SHSE','중국','Shanghai Stock Exchange','상혜증권거래소','ShanhaiMainStock','ShanhaiMainStock','N','8','N');</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -14779,7 +15041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f t="shared" ref="A19:K19" si="5">CONCATENATE("'",A18,"'",",")</f>
         <v>'21',</v>
@@ -14833,7 +15095,7 @@
         <v>INSERT INTO Market (MarketId,CntryId,CntryEn,BourseId,CntryKo,BourseEn,BourseKo,MarketKo,MarketEn,ShortSellAllow,TimeZone,Active) VALUES ('21','0002','China','SZSE','중국','Shenzhen Stock Exchange','심천증권거래소','ShenzhenMainStock','ShenzhenMainStock','N','8','N');</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -14871,7 +15133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f t="shared" ref="A22:K22" si="6">CONCATENATE("'",A21,"'",",")</f>
         <v>'22',</v>
@@ -14925,7 +15187,7 @@
         <v>INSERT INTO Market (MarketId,CntryId,CntryEn,BourseId,CntryKo,BourseEn,BourseKo,MarketKo,MarketEn,ShortSellAllow,TimeZone,Active) VALUES ('22','0002','China','SZSE','중국','Shenzhen Stock Exchange','심천증권거래소','Growth Enterprise Market','Growth Enterprise Market','N','8','N');</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>433</v>
       </c>
@@ -14952,7 +15214,7 @@
         <v>INSERT INTO TradeItems (ItemId,MarketId,ItemKo,ItemEn,Tradable,Symbol,ShortSellAllow) VALUES (</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>439</v>
       </c>
@@ -14980,7 +15242,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <f t="shared" ref="A28:F28" si="7">CONCATENATE("'",A27,"'",",")</f>
         <v>'000150',</v>
@@ -15014,7 +15276,7 @@
         <v>INSERT INTO TradeItems (ItemId,MarketId,ItemKo,ItemEn,Tradable,Symbol,ShortSellAllow) VALUES ('000150','10','두산','두산','Y','….','Y');</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>441</v>
       </c>
@@ -15042,7 +15304,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f t="shared" ref="A31:F31" si="8">CONCATENATE("'",A30,"'",",")</f>
         <v>'000050',</v>
@@ -15091,18 +15353,18 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="1.875" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="1.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>285</v>
       </c>
@@ -15120,7 +15382,7 @@
         <v>INSERT INTO TradingTimeInfo (MarketId,LocalOpenTime,LocalCloseTime,MgmtType) VALUES (</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -15142,7 +15404,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f>CONCATENATE("'",A3,"'",",")</f>
         <v>'10',</v>
@@ -15164,7 +15426,7 @@
         <v>INSERT INTO TradingTimeInfo (MarketId,LocalOpenTime,LocalCloseTime,MgmtType) VALUES ('10','9:15:00','15:30:00','0001');</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -15186,7 +15448,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f>CONCATENATE("'",A6,"'",",")</f>
         <v>'10',</v>
@@ -15208,7 +15470,7 @@
         <v>INSERT INTO TradingTimeInfo (MarketId,LocalOpenTime,LocalCloseTime,MgmtType) VALUES ('10','12:00:00','13:00:00','0002');</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -15230,7 +15492,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f>CONCATENATE("'",A9,"'",",")</f>
         <v>'11',</v>
@@ -15252,7 +15514,7 @@
         <v>INSERT INTO TradingTimeInfo (MarketId,LocalOpenTime,LocalCloseTime,MgmtType) VALUES ('11','9:15:00','15:30:00','0001');</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -15274,7 +15536,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f>CONCATENATE("'",A12,"'",",")</f>
         <v>'11',</v>
@@ -15296,7 +15558,7 @@
         <v>INSERT INTO TradingTimeInfo (MarketId,LocalOpenTime,LocalCloseTime,MgmtType) VALUES ('11','12:00:00','13:00:00','0002');</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -15318,7 +15580,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f>CONCATENATE("'",A15,"'",",")</f>
         <v>'12',</v>
@@ -15340,7 +15602,7 @@
         <v>INSERT INTO TradingTimeInfo (MarketId,LocalOpenTime,LocalCloseTime,MgmtType) VALUES ('12','9:15:00','15:30:00','0001');</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -15362,7 +15624,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f>CONCATENATE("'",A18,"'",",")</f>
         <v>'12',</v>
@@ -15384,7 +15646,7 @@
         <v>INSERT INTO TradingTimeInfo (MarketId,LocalOpenTime,LocalCloseTime,MgmtType) VALUES ('12','12:00:00','13:00:00','0002');</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -15406,7 +15668,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f>CONCATENATE("'",A21,"'",",")</f>
         <v>'18',</v>
@@ -15444,39 +15706,39 @@
       <selection pane="topRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.375" customWidth="1"/>
-    <col min="20" max="20" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.3984375" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>315</v>
       </c>
@@ -15506,7 +15768,7 @@
         <v>INSERT INTO VipType (VipTypeId,LastWeekTrade,LastMonthTrade,Last3MonthTrade,UpdateTime,AutoCheck,EffcDays,Memo) VALUES (</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -15532,7 +15794,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f>CONCATENATE("'",A4,"'",",")</f>
         <v>'vip0_1',</v>
@@ -15570,11 +15832,11 @@
         <v>INSERT INTO VipType (VipTypeId,LastWeekTrade,LastMonthTrade,Last3MonthTrade,UpdateTime,AutoCheck,EffcDays,Memo) VALUES ('vip0_1','0','0','0',to_date('2018-12-11','YYYY-MM-DD'),'0001','9999','Silver');</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -15600,7 +15862,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f>CONCATENATE("'",A7,"'",",")</f>
         <v>'vip1_1',</v>
@@ -15638,11 +15900,11 @@
         <v>INSERT INTO VipType (VipTypeId,LastWeekTrade,LastMonthTrade,Last3MonthTrade,UpdateTime,AutoCheck,EffcDays,Memo) VALUES ('vip1_1','1000','3000','6000',to_date('2018-12-11','YYYY-MM-DD'),'0002','60','Golder');</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -15668,7 +15930,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f>CONCATENATE("'",A10,"'",",")</f>
         <v>'vip2_1',</v>
@@ -15706,11 +15968,11 @@
         <v>INSERT INTO VipType (VipTypeId,LastWeekTrade,LastMonthTrade,Last3MonthTrade,UpdateTime,AutoCheck,EffcDays,Memo) VALUES ('vip2_1','3000','9000','25000',to_date('2018-12-11','YYYY-MM-DD'),'0002','60','Diamond');</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -15736,7 +15998,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f>CONCATENATE("'",A13,"'",",")</f>
         <v>'vip3_1',</v>
@@ -15774,11 +16036,11 @@
         <v>INSERT INTO VipType (VipTypeId,LastWeekTrade,LastMonthTrade,Last3MonthTrade,UpdateTime,AutoCheck,EffcDays,Memo) VALUES ('vip3_1','10000','40000','1000000',to_date('2018-12-11','YYYY-MM-DD'),'0003','9999','Super');</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -15804,7 +16066,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f>CONCATENATE("'",A16,"'",",")</f>
         <v>'vip4_1',</v>
@@ -15842,12 +16104,12 @@
         <v>INSERT INTO VipType (VipTypeId,LastWeekTrade,LastMonthTrade,Last3MonthTrade,UpdateTime,AutoCheck,EffcDays,Memo) VALUES ('vip4_1','0','0','0',to_date('2018-12-11','YYYY-MM-DD'),'0004','0','Special');</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>176</v>
       </c>
@@ -15928,13 +16190,13 @@
         <v>INSERT INTO VipInfo (VipId,VipKo,VipEn,TradeTaxRate,TradeFeeRate,MgmtFeeRate,CloseFeeRate,LossCutFeeRate,OverNightFeeRate,OverNightMaxDay,OverNightFreeDay,LossCutFree,LossCutRateMin,LostCutRateMax,BonusRate,BonusCntPerMonth,BonusActive,BonusMaxMoney,MaxBrrwCnt,MaxBrrwRate,MaxBrrwMoney,MembershipDay,ProfitInvestActive,ShortSellAllow,VipTypeId) VALUES (</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>199</v>
       </c>
@@ -16011,7 +16273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="str">
         <f t="shared" ref="A25:X25" si="0">CONCATENATE("'",A24,"'",",")</f>
         <v>'vip0',</v>
@@ -16117,12 +16379,12 @@
         <v>INSERT INTO VipInfo (VipId,VipKo,VipEn,TradeTaxRate,TradeFeeRate,MgmtFeeRate,CloseFeeRate,LossCutFeeRate,OverNightFeeRate,OverNightMaxDay,OverNightFreeDay,LossCutFree,LossCutRateMin,LostCutRateMax,BonusRate,BonusCntPerMonth,BonusActive,BonusMaxMoney,MaxBrrwCnt,MaxBrrwRate,MaxBrrwMoney,MembershipDay,ProfitInvestActive,ShortSellAllow,VipTypeId) VALUES ('vip0','은','Silver','0.03','0.15','0.15','0.15','0.15','0.1','5','5','N','30','30','0','0','N','10000','2','10','100000000','9999','N','N','vip0_1');</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>209</v>
       </c>
@@ -16199,7 +16461,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="str">
         <f t="shared" ref="A28:X28" si="1">CONCATENATE("'",A27,"'",",")</f>
         <v>'vip1',</v>
@@ -16305,12 +16567,12 @@
         <v>INSERT INTO VipInfo (VipId,VipKo,VipEn,TradeTaxRate,TradeFeeRate,MgmtFeeRate,CloseFeeRate,LossCutFeeRate,OverNightFeeRate,OverNightMaxDay,OverNightFreeDay,LossCutFree,LossCutRateMin,LostCutRateMax,BonusRate,BonusCntPerMonth,BonusActive,BonusMaxMoney,MaxBrrwCnt,MaxBrrwRate,MaxBrrwMoney,MembershipDay,ProfitInvestActive,ShortSellAllow,VipTypeId) VALUES ('vip1','황금','Gold','0.03','0.15','0.15','0.15','0.15','0.1','9','9','N','30','30','0.1','0','N','20000','3','15','300000000','30','Y','Y','vip1_1');</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>210</v>
       </c>
@@ -16387,7 +16649,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="str">
         <f t="shared" ref="A31:X31" si="2">CONCATENATE("'",A30,"'",",")</f>
         <v>'vip2',</v>
@@ -16493,12 +16755,12 @@
         <v>INSERT INTO VipInfo (VipId,VipKo,VipEn,TradeTaxRate,TradeFeeRate,MgmtFeeRate,CloseFeeRate,LossCutFeeRate,OverNightFeeRate,OverNightMaxDay,OverNightFreeDay,LossCutFree,LossCutRateMin,LostCutRateMax,BonusRate,BonusCntPerMonth,BonusActive,BonusMaxMoney,MaxBrrwCnt,MaxBrrwRate,MaxBrrwMoney,MembershipDay,ProfitInvestActive,ShortSellAllow,VipTypeId) VALUES ('vip2','다이아몬드','Diamond','0.03','0.15','0.15','0.15','0.15','0.1','12','9','Y','30','20','0.1','1','N','100000','4','20','500000000','90','Y','Y','vip2_1');</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
         <v>211</v>
       </c>
@@ -16575,7 +16837,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="str">
         <f t="shared" ref="A34:X34" si="3">CONCATENATE("'",A33,"'",",")</f>
         <v>'vip3',</v>
@@ -16681,12 +16943,12 @@
         <v>INSERT INTO VipInfo (VipId,VipKo,VipEn,TradeTaxRate,TradeFeeRate,MgmtFeeRate,CloseFeeRate,LossCutFeeRate,OverNightFeeRate,OverNightMaxDay,OverNightFreeDay,LossCutFree,LossCutRateMin,LostCutRateMax,BonusRate,BonusCntPerMonth,BonusActive,BonusMaxMoney,MaxBrrwCnt,MaxBrrwRate,MaxBrrwMoney,MembershipDay,ProfitInvestActive,ShortSellAllow,VipTypeId) VALUES ('vip3','초거성','Super','0.03','0.15','0.15','0.15','0.15','0.1','15','9','Y','30','10','0.1','3','Y','200000','5','50','500000000','9999','Y','Y','vip3_1');</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
         <v>212</v>
       </c>
@@ -16763,7 +17025,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="str">
         <f t="shared" ref="A37:X37" si="4">CONCATENATE("'",A36,"'",",")</f>
         <v>'vip4',</v>
@@ -16878,26 +17140,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.875" customWidth="1"/>
+    <col min="10" max="12" width="1.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
@@ -16930,7 +17192,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES (</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -16960,7 +17222,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f t="shared" ref="A4:H4" si="0">CONCATENATE("'",A3,"'",",")</f>
         <v>'TradeFeeMode',</v>
@@ -17002,7 +17264,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('TradeFeeMode','0003','','0005','0014','Y','(0014)거래수수료 발생 시기. Open/Close/Both','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -17032,7 +17294,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f t="shared" ref="A7:H7" si="2">CONCATENATE("'",A6,"'",",")</f>
         <v>'TradeTaxMode',</v>
@@ -17074,7 +17336,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('TradeTaxMode','0002','','0005','0014','Y','(0014)거래세 발생 시기. Open/Close/Both','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -17104,7 +17366,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f t="shared" ref="A10:H10" si="4">CONCATENATE("'",A9,"'",",")</f>
         <v>'MgmtFeeMode',</v>
@@ -17146,7 +17408,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('MgmtFeeMode','0001','','0005','0014','Y','(0014)취급수수료 방생시기. Open/Close/Both','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>360</v>
       </c>
@@ -17174,7 +17436,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f t="shared" ref="A13:H13" si="6">CONCATENATE("'",A12,"'",",")</f>
         <v>'BonusModeActive',</v>
@@ -17216,7 +17478,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('BonusModeActive','Y','','0004','','Y','Bonus 적용 여부. 미 적용시 기본VIP0으로 시스템운영','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -17244,7 +17506,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f t="shared" ref="A16:H16" si="8">CONCATENATE("'",A15,"'",",")</f>
         <v>'VipModeActive',</v>
@@ -17286,7 +17548,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('VipModeActive','Y','','0004','','Y','Vip Mode 적용 여부. 미 적용시 기본VIP0으로 시스템운영','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>230</v>
       </c>
@@ -17316,7 +17578,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f t="shared" ref="A19:H19" si="10">CONCATENATE("'",A18,"'",",")</f>
         <v>'VipUpdatePeriod',</v>
@@ -17358,7 +17620,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('VipUpdatePeriod','0002','','0005','0015','Y','(0015)Vip 등급Update(마감)주기','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>343</v>
       </c>
@@ -17384,7 +17646,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f t="shared" ref="A22:H22" si="12">CONCATENATE("'",A21,"'",",")</f>
         <v>'BankProcessTime',</v>
@@ -17426,7 +17688,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('BankProcessTime','8:00','16:00','0002','','Y','입출금 처리 시간','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>362</v>
       </c>
@@ -17449,7 +17711,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
         <f t="shared" ref="A25:H25" si="14">CONCATENATE("'",A24,"'",",")</f>
         <v>'RejectOrNoTAtNoBankTime',</v>
@@ -17491,7 +17753,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('RejectOrNoTAtNoBankTime','N','','0004','','Y','비 입출금 처리 시간에 업출근 요청 Rejected 여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>393</v>
       </c>
@@ -17515,7 +17777,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <f t="shared" ref="A28:H28" si="16">CONCATENATE("'",A27,"'",",")</f>
         <v>'DepositMinMoney',</v>
@@ -17557,7 +17819,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('DepositMinMoney','1000000','','0003','','Y','일회 충전 최소금액','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>394</v>
       </c>
@@ -17581,7 +17843,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f t="shared" ref="A31:H31" si="18">CONCATENATE("'",A30,"'",",")</f>
         <v>'DepositMaxMoney',</v>
@@ -17623,7 +17885,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('DepositMaxMoney','50000000','','0003','','Y','일회 충전 최대금액','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>413</v>
       </c>
@@ -17647,7 +17909,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
         <f t="shared" ref="A34:H34" si="20">CONCATENATE("'",A33,"'",",")</f>
         <v>'MaxBrrwCnt',</v>
@@ -17689,7 +17951,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('MaxBrrwCnt','5','','0001','','Y','개인보유대출 중료의 최대 값','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>427</v>
       </c>
@@ -17713,7 +17975,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
         <f t="shared" ref="A37:H37" si="22">CONCATENATE("'",A36,"'",",")</f>
         <v>'MaxBrrwMoney',</v>
@@ -17755,7 +18017,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('MaxBrrwMoney','1000000000','','0003','','Y','개인보유 총 대출 최대 값','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>418</v>
       </c>
@@ -17779,7 +18041,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
         <f t="shared" ref="A40:H40" si="23">CONCATENATE("'",A39,"'",",")</f>
         <v>'OneTimeMinPrincipal',</v>
@@ -17821,7 +18083,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OneTimeMinPrincipal','200000','','0003','','Y','대출신청 시 취소담보금','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>649</v>
       </c>
@@ -17845,7 +18107,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
         <f t="shared" ref="A43:H43" si="24">CONCATENATE("'",A42,"'",",")</f>
         <v>'RealTimeDelay',</v>
@@ -17887,7 +18149,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('RealTimeDelay','5','','0001','','Y','거래 처리 시 허용 시세 Delay 최대값(초)','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>411</v>
       </c>
@@ -17911,7 +18173,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
         <f t="shared" ref="A46:H46" si="25">CONCATENATE("'",A45,"'",",")</f>
         <v>'LossCutPcnt',</v>
@@ -17953,7 +18215,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('LossCutPcnt','30','','0001','','Y','LossCut Defualt 설정값(30%)','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>718</v>
       </c>
@@ -17977,7 +18239,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
         <f t="shared" ref="A49:H49" si="27">CONCATENATE("'",A48,"'",",")</f>
         <v>'LossCutCustoms',</v>
@@ -18019,7 +18281,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('LossCutCustoms','N','','0004','','Y','LossCut Defualt 고객 설정가능여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>453</v>
       </c>
@@ -18043,7 +18305,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="str">
         <f t="shared" ref="A52:H52" si="29">CONCATENATE("'",A51,"'",",")</f>
         <v>'ShortSellAllow',</v>
@@ -18085,7 +18347,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('ShortSellAllow','Y','','0004','','Y','공매매 가능 여부설정','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>421</v>
       </c>
@@ -18109,7 +18371,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="str">
         <f t="shared" ref="A55:H55" si="30">CONCATENATE("'",A54,"'",",")</f>
         <v>'ProfitInvestActive',</v>
@@ -18151,7 +18413,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('ProfitInvestActive','Y','','0004','','Y','마진 투자가능여부 설정','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>368</v>
       </c>
@@ -18175,7 +18437,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="str">
         <f t="shared" ref="A58:H58" si="31">CONCATENATE("'",A57,"'",",")</f>
         <v>'OverNight',</v>
@@ -18217,7 +18479,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OverNight','Y','','0004','','Y','OverNight Default 적용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>750</v>
       </c>
@@ -18241,7 +18503,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="str">
         <f t="shared" ref="A61:H61" si="32">CONCATENATE("'",A60,"'",",")</f>
         <v>'OverNightRate',</v>
@@ -18283,7 +18545,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OverNightRate','5','','0001','','Y','담보금 대비 OverNight 가능 배숫','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>473</v>
       </c>
@@ -18310,7 +18572,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="str">
         <f t="shared" ref="A64:H64" si="33">CONCATENATE("'",A63,"'",",")</f>
         <v>'ReturnTypeOfShortOrder',</v>
@@ -18352,7 +18614,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('ReturnTypeOfShortOrder','0001','','0005','0023','Y','(0023)공매매 Close 시 거래금 반환방식','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>721</v>
       </c>
@@ -18376,7 +18638,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="str">
         <f t="shared" ref="A67:H67" si="34">CONCATENATE("'",A66,"'",",")</f>
         <v>'ReturnTypeOfShortOrderCustoms',</v>
@@ -18418,7 +18680,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('ReturnTypeOfShortOrderCustoms','Y','','0004','','Y','(0023)공매매 Close 시 거래금 반환방식 고객 설정가능여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>485</v>
       </c>
@@ -18445,7 +18707,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="str">
         <f t="shared" ref="A70:H70" si="35">CONCATENATE("'",A69,"'",",")</f>
         <v>'CloseTypeOfOverNightBeyond',</v>
@@ -18487,7 +18749,7 @@
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('CloseTypeOfOverNightBeyond','0001','','0005','0025','Y','(0025)OverNight 초과 부분 자동Close시 Position 처리순서','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>749</v>
       </c>
@@ -18511,7 +18773,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="str">
         <f t="shared" ref="A73:H73" si="36">CONCATENATE("'",A72,"'",",")</f>
         <v>'CloseTypeOfOverNightCustoms',</v>
@@ -18551,6 +18813,138 @@
       <c r="M73" t="str">
         <f>CONCATENATE($M$1,A73,B73,C73,D73,E73,F73,G73,H73,I73,J73,K73,L73,");")</f>
         <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('CloseTypeOfOverNightCustoms','Y','','0004','','Y','(0025)OverNight 초과 부분 자동Close시 Position 처리순서 고객 설정가능여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>805</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>807</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" t="str">
+        <f t="shared" ref="A76:H76" si="37">CONCATENATE("'",A75,"'",",")</f>
+        <v>'GuaranteeWithdraw',</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="37"/>
+        <v>'Y',</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="37"/>
+        <v>'',</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="37"/>
+        <v>'0004',</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="37"/>
+        <v>'',</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="37"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="37"/>
+        <v>'대출의 밤보금 출금가능여부',</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="37"/>
+        <v>'Admin',</v>
+      </c>
+      <c r="I76" t="str">
+        <f>CONCATENATE("to_date('",I75,"','YYYY-MM-DD')")</f>
+        <v>to_date('2018-12-11','YYYY-MM-DD')</v>
+      </c>
+      <c r="M76" t="str">
+        <f>CONCATENATE($M$1,A76,B76,C76,D76,E76,F76,G76,H76,I76,J76,K76,L76,");")</f>
+        <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('GuaranteeWithdraw','Y','','0004','','Y','대출의 밤보금 출금가능여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>806</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>808</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" t="str">
+        <f t="shared" ref="A79:H79" si="38">CONCATENATE("'",A78,"'",",")</f>
+        <v>'GuaranteeWithdrawPcnt',</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="38"/>
+        <v>'30',</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="38"/>
+        <v>'',</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="38"/>
+        <v>'0001',</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="38"/>
+        <v>'',</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="38"/>
+        <v>'Y',</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="38"/>
+        <v>'대출의 밤보금 출금 퍼센트',</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="38"/>
+        <v>'Admin',</v>
+      </c>
+      <c r="I79" t="str">
+        <f>CONCATENATE("to_date('",I78,"','YYYY-MM-DD')")</f>
+        <v>to_date('2018-12-11','YYYY-MM-DD')</v>
+      </c>
+      <c r="M79" t="str">
+        <f>CONCATENATE($M$1,A79,B79,C79,D79,E79,F79,G79,H79,I79,J79,K79,L79,");")</f>
+        <v>INSERT INTO OptSetting (OptKey,OptMainValue,OptSubValue1,OptSubValue2,OptSubValue3,Active,Memo,MgmtUserId,UpdateDate) VALUES ('GuaranteeWithdrawPcnt','30','','0001','','Y','대출의 밤보금 출금 퍼센트','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
   </sheetData>
@@ -18569,20 +18963,20 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.625" customWidth="1"/>
-    <col min="11" max="12" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.59765625" customWidth="1"/>
+    <col min="11" max="12" width="1.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>373</v>
       </c>
@@ -18618,7 +19012,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES (</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>257</v>
       </c>
@@ -18648,7 +19042,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f t="shared" ref="A4:F4" si="0">CONCATENATE("'",A3,"'",",")</f>
         <v>'MarketMinBrrwRate',</v>
@@ -18694,10 +19088,10 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('MarketMinBrrwRate','10','1','50','','','Y','코스피 대출 배수','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>771</v>
       </c>
@@ -18724,7 +19118,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f t="shared" ref="A7:I7" si="3">CONCATENATE("'",A6,"'",",")</f>
         <v>'OverHLimitRef',</v>
@@ -18770,7 +19164,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OverHLimitRef','10','30','','','','Y','한국주식 전일 상한가초과','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>772</v>
       </c>
@@ -18797,7 +19191,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f t="shared" ref="A10:I10" si="5">CONCATENATE("'",A9,"'",",")</f>
         <v>'OverLLimitRef',</v>
@@ -18843,10 +19237,10 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OverLLimitRef','10','30','','','','Y','한국주식 전일 상한가초과','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>773</v>
       </c>
@@ -18873,7 +19267,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f t="shared" ref="A13" si="7">CONCATENATE("'",A12,"'",",")</f>
         <v>'OverHLimitCur',</v>
@@ -18919,7 +19313,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OverHLimitCur','10','22','','','','Y','한국주식  당일 기준가초과','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>774</v>
       </c>
@@ -18947,7 +19341,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f t="shared" ref="A16:I16" si="10">CONCATENATE("'",A15,"'",",")</f>
         <v>'OverLLimitCur',</v>
@@ -18993,7 +19387,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('OverLLimitCur','10','22','','','','Y','한국주식 당일 기준가 이하','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>779</v>
       </c>
@@ -19021,7 +19415,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f t="shared" ref="A19" si="12">CONCATENATE("'",A18,"'",",")</f>
         <v>'AmtLowerRef',</v>
@@ -19067,7 +19461,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('AmtLowerRef','10','500000000','','','','Y','한국주식 전일 거래랑 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>780</v>
       </c>
@@ -19095,7 +19489,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f t="shared" ref="A22:I22" si="15">CONCATENATE("'",A21,"'",",")</f>
         <v>'MoneyLowerRef',</v>
@@ -19141,7 +19535,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('MoneyLowerRef','10','500000000','','','','Y','한국주식 전일 거래대금 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>782</v>
       </c>
@@ -19169,7 +19563,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
         <f t="shared" ref="A25:I25" si="17">CONCATENATE("'",A24,"'",",")</f>
         <v>'AmtLowerCur',</v>
@@ -19215,7 +19609,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('AmtLowerCur','10','500000000','','','','Y','한국주식 당일 거래랑 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>783</v>
       </c>
@@ -19243,7 +19637,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <f t="shared" ref="A28:I28" si="19">CONCATENATE("'",A27,"'",",")</f>
         <v>'MoneyLowerCur',</v>
@@ -19289,7 +19683,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('MoneyLowerCur','10','500000000','','','','Y','한국주식 당일 거래대금 미달','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>786</v>
       </c>
@@ -19317,7 +19711,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f t="shared" ref="A31:I31" si="21">CONCATENATE("'",A30,"'",",")</f>
         <v>'InvestLimit1',</v>
@@ -19363,7 +19757,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit1','10','0001','','','','Y','거래정지 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>787</v>
       </c>
@@ -19391,7 +19785,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
         <f t="shared" ref="A34:I34" si="23">CONCATENATE("'",A33,"'",",")</f>
         <v>'InvestLimit2',</v>
@@ -19437,7 +19831,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit2','10','0002','','','','Y','관리종목 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>788</v>
       </c>
@@ -19465,7 +19859,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
         <f t="shared" ref="A37:I37" si="25">CONCATENATE("'",A36,"'",",")</f>
         <v>'InvestLimit3',</v>
@@ -19511,7 +19905,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit3','10','0003','','','','Y','우선주 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>789</v>
       </c>
@@ -19539,7 +19933,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
         <f t="shared" ref="A40:I40" si="27">CONCATENATE("'",A39,"'",",")</f>
         <v>'InvestLimit4',</v>
@@ -19585,7 +19979,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit4','10','0004','','','','Y','정리매매 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>790</v>
       </c>
@@ -19613,7 +20007,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
         <f t="shared" ref="A43:I43" si="29">CONCATENATE("'",A42,"'",",")</f>
         <v>'InvestLimit5',</v>
@@ -19659,7 +20053,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit5','10','0005','','','','Y','투자경고 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>791</v>
       </c>
@@ -19687,7 +20081,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
         <f t="shared" ref="A46:I46" si="31">CONCATENATE("'",A45,"'",",")</f>
         <v>'InvestLimit6',</v>
@@ -19733,7 +20127,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit6','10','0006','','','','Y','투자주의 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>792</v>
       </c>
@@ -19761,7 +20155,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
         <f t="shared" ref="A49:I49" si="33">CONCATENATE("'",A48,"'",",")</f>
         <v>'InvestLimit7',</v>
@@ -19807,7 +20201,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit7','10','0007','','','','Y','투자위험 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>793</v>
       </c>
@@ -19835,7 +20229,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="str">
         <f t="shared" ref="A52:I52" si="35">CONCATENATE("'",A51,"'",",")</f>
         <v>'InvestLimit8',</v>
@@ -19881,7 +20275,7 @@
         <v>INSERT INTO MarketSetting (ConfigName,MarketId,Value1,Value2,Value3,Value4,Active,Memo,MgmtUserId,UpdateDate) VALUES ('InvestLimit8','10','0008','','','','Y','투자주의환기 조건 사용여부','Admin',to_date('2018-12-11','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -19909,24 +20303,24 @@
       <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="24" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>286</v>
       </c>
@@ -19953,7 +20347,7 @@
         <v>INSERT INTO UserInfo (UserId,UserType,InitPwd,CreateTime,CurPwd,UpdateTime,Active) VALUES (</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -19976,7 +20370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f>CONCATENATE("'",A4,"'",",")</f>
         <v>'ShrubAdmin',</v>
@@ -20010,7 +20404,7 @@
         <v>INSERT INTO UserInfo (UserId,UserType,InitPwd,CreateTime,CurPwd,UpdateTime,Active) VALUES ('ShrubAdmin','0010','P@ssw0rd!',to_date('2018-12-12','YYYY-MM-DD'),'P@ssw0rd!',to_date('2018-12-12','YYYY-MM-DD'),'Y');</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>295</v>
       </c>
@@ -20033,7 +20427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f>CONCATENATE("'",A7,"'",",")</f>
         <v>'OrgTest01',</v>
@@ -20067,7 +20461,7 @@
         <v>INSERT INTO UserInfo (UserId,UserType,InitPwd,CreateTime,CurPwd,UpdateTime,Active) VALUES ('OrgTest01','0009','123456',to_date('2018-12-12','YYYY-MM-DD'),'123456',to_date('2018-12-12','YYYY-MM-DD'),'Y');</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -20090,7 +20484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f>CONCATENATE("'",A10,"'",",")</f>
         <v>'OrgVip01',</v>
@@ -20124,7 +20518,7 @@
         <v>INSERT INTO UserInfo (UserId,UserType,InitPwd,CreateTime,CurPwd,UpdateTime,Active) VALUES ('OrgVip01','0001','123456',to_date('2018-12-12','YYYY-MM-DD'),'123456',to_date('2018-12-12','YYYY-MM-DD'),'Y');</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>305</v>
       </c>
@@ -20147,7 +20541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f>CONCATENATE("'",A13,"'",",")</f>
         <v>'OrgVip02',</v>
@@ -20181,7 +20575,7 @@
         <v>INSERT INTO UserInfo (UserId,UserType,InitPwd,CreateTime,CurPwd,UpdateTime,Active) VALUES ('OrgVip02','0001','123456',to_date('2018-12-12','YYYY-MM-DD'),'123456',to_date('2018-12-12','YYYY-MM-DD'),'Y');</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>306</v>
       </c>
@@ -20204,7 +20598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f>CONCATENATE("'",A16,"'",",")</f>
         <v>'OrgVip03',</v>
@@ -20238,7 +20632,7 @@
         <v>INSERT INTO UserInfo (UserId,UserType,InitPwd,CreateTime,CurPwd,UpdateTime,Active) VALUES ('OrgVip03','0001','123456',to_date('2018-12-12','YYYY-MM-DD'),'123456',to_date('2018-12-12','YYYY-MM-DD'),'Y');</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>296</v>
       </c>
@@ -20261,7 +20655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <f>CONCATENATE("'",A19,"'",",")</f>
         <v>'OrgManager01',</v>
@@ -20295,7 +20689,7 @@
         <v>INSERT INTO UserInfo (UserId,UserType,InitPwd,CreateTime,CurPwd,UpdateTime,Active) VALUES ('OrgManager01','0001','123456',to_date('2018-12-12','YYYY-MM-DD'),'123456',to_date('2018-12-12','YYYY-MM-DD'),'Y');</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>335</v>
       </c>
@@ -20318,7 +20712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <f>CONCATENATE("'",A22,"'",",")</f>
         <v>'OrgTest02',</v>
@@ -20352,12 +20746,12 @@
         <v>INSERT INTO UserInfo (UserId,UserType,InitPwd,CreateTime,CurPwd,UpdateTime,Active) VALUES ('OrgTest02','0009','123456',to_date('2018-12-12','YYYY-MM-DD'),'123456',to_date('2018-12-12','YYYY-MM-DD'),'Y');</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>286</v>
       </c>
@@ -20384,7 +20778,7 @@
         <v>INSERT INTO CustInfo (UserId,Name,Birthday,OrgCellPhone,CurCellPhone,Email,PromotionCode) VALUES (</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>295</v>
       </c>
@@ -20414,7 +20808,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f t="shared" ref="A31:F31" si="0">CONCATENATE("'",A30,"'",",")</f>
         <v>'OrgTest01',</v>
@@ -20448,7 +20842,7 @@
         <v>INSERT INTO CustInfo (UserId,Name,Birthday,OrgCellPhone,CurCellPhone,Email,PromotionCode) VALUES ('OrgTest01','OrgTest01','19991111','01087879999','01087879999','test@Shrub.com','9999');</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>307</v>
       </c>
@@ -20478,7 +20872,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
         <f t="shared" ref="A34:F34" si="1">CONCATENATE("'",A33,"'",",")</f>
         <v>'OrgVip01',</v>
@@ -20512,7 +20906,7 @@
         <v>INSERT INTO CustInfo (UserId,Name,Birthday,OrgCellPhone,CurCellPhone,Email,PromotionCode) VALUES ('OrgVip01','OrgVip01','19991111','01087879999','01087879999','test@Shrub.com','9999');</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>305</v>
       </c>
@@ -20542,7 +20936,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
         <f t="shared" ref="A37:F37" si="2">CONCATENATE("'",A36,"'",",")</f>
         <v>'OrgVip02',</v>
@@ -20576,7 +20970,7 @@
         <v>INSERT INTO CustInfo (UserId,Name,Birthday,OrgCellPhone,CurCellPhone,Email,PromotionCode) VALUES ('OrgVip02','OrgVip02','19991111','01087879999','01087879999','test@Shrub.com','9999');</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>306</v>
       </c>
@@ -20606,7 +21000,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
         <f t="shared" ref="A40:F40" si="3">CONCATENATE("'",A39,"'",",")</f>
         <v>'OrgVip03',</v>
@@ -20640,7 +21034,7 @@
         <v>INSERT INTO CustInfo (UserId,Name,Birthday,OrgCellPhone,CurCellPhone,Email,PromotionCode) VALUES ('OrgVip03','OrgVip03','19991111','01087879999','01087879999','test@Shrub.com','9999');</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>335</v>
       </c>
@@ -20670,7 +21064,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
         <f t="shared" ref="A43:F43" si="4">CONCATENATE("'",A42,"'",",")</f>
         <v>'OrgTest02',</v>
@@ -20704,12 +21098,12 @@
         <v>INSERT INTO CustInfo (UserId,Name,Birthday,OrgCellPhone,CurCellPhone,Email,PromotionCode) VALUES ('OrgTest02','OrgTest02','19991111','01087879999','01087879999','test@Shrub.com','9999');</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A48" s="12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
         <v>328</v>
       </c>
@@ -20742,7 +21136,7 @@
         <v>INSERT INTO CustVip (UserId,VipId,StartDate,EndDate,Memo,UpdateDate,SvipStartDate,SvipEndDate,SpecialVip) VALUES (</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>295</v>
       </c>
@@ -20763,7 +21157,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A52" t="str">
         <f>CONCATENATE("'",A51,"'",",")</f>
         <v>'OrgTest01',</v>
@@ -20805,7 +21199,7 @@
         <v>INSERT INTO CustVip (UserId,VipId,StartDate,EndDate,Memo,UpdateDate,SvipStartDate,SvipEndDate,SpecialVip) VALUES ('OrgTest01','vip0',to_date('2018-12-13','YYYY-MM-DD'),to_date('2022-12-13','YYYY-MM-DD'),'For test vip0',to_date('2018-12-13','YYYY-MM-DD'),'','','');</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>307</v>
       </c>
@@ -20826,7 +21220,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A55" t="str">
         <f>CONCATENATE("'",A54,"'",",")</f>
         <v>'OrgVip01',</v>
@@ -20868,7 +21262,7 @@
         <v>INSERT INTO CustVip (UserId,VipId,StartDate,EndDate,Memo,UpdateDate,SvipStartDate,SvipEndDate,SpecialVip) VALUES ('OrgVip01','vip1',to_date('2018-12-13','YYYY-MM-DD'),to_date('2022-12-13','YYYY-MM-DD'),'For test Vip1',to_date('2018-12-13','YYYY-MM-DD'),'','','');</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>305</v>
       </c>
@@ -20889,7 +21283,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A58" t="str">
         <f>CONCATENATE("'",A57,"'",",")</f>
         <v>'OrgVip02',</v>
@@ -20931,7 +21325,7 @@
         <v>INSERT INTO CustVip (UserId,VipId,StartDate,EndDate,Memo,UpdateDate,SvipStartDate,SvipEndDate,SpecialVip) VALUES ('OrgVip02','vip2',to_date('2018-12-13','YYYY-MM-DD'),to_date('2022-12-13','YYYY-MM-DD'),'For test vip2',to_date('2018-12-13','YYYY-MM-DD'),'','','');</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>306</v>
       </c>
@@ -20952,7 +21346,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A61" t="str">
         <f>CONCATENATE("'",A60,"'",",")</f>
         <v>'OrgVip03',</v>
@@ -20994,7 +21388,7 @@
         <v>INSERT INTO CustVip (UserId,VipId,StartDate,EndDate,Memo,UpdateDate,SvipStartDate,SvipEndDate,SpecialVip) VALUES ('OrgVip03','vip3',to_date('2018-12-13','YYYY-MM-DD'),to_date('2022-12-13','YYYY-MM-DD'),'For test vip3',to_date('2018-12-13','YYYY-MM-DD'),'','','');</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>335</v>
       </c>
@@ -21023,7 +21417,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A64" t="str">
         <f>CONCATENATE("'",A63,"'",",")</f>
         <v>'OrgTest02',</v>
@@ -21065,12 +21459,12 @@
         <v>INSERT INTO CustVip (UserId,VipId,StartDate,EndDate,Memo,UpdateDate,SvipStartDate,SvipEndDate,SpecialVip) VALUES ('OrgTest02','vip0',to_date('2018-12-13','YYYY-MM-DD'),to_date('2022-12-13','YYYY-MM-DD'),'For test special',to_date('2018-12-13','YYYY-MM-DD'),to_date('2018-12-13','YYYY-MM-DD'),to_date('2019-1-13','YYYY-MM-DD'),'vip4');</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A67" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="68" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>337</v>
       </c>
@@ -21085,7 +21479,7 @@
         <v>INSERT INTO CustBalance (UserId, FirstDeposit,Principal) VALUES (</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>295</v>
       </c>
@@ -21096,7 +21490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A71" t="str">
         <f>CONCATENATE("'",A70,"'",",")</f>
         <v>'OrgTest01',</v>
@@ -21114,7 +21508,7 @@
         <v>INSERT INTO CustBalance (UserId, FirstDeposit,Principal) VALUES ('OrgTest01','0','0');</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>307</v>
       </c>
@@ -21125,7 +21519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A74" t="str">
         <f>CONCATENATE("'",A73,"'",",")</f>
         <v>'OrgVip01',</v>
@@ -21143,7 +21537,7 @@
         <v>INSERT INTO CustBalance (UserId, FirstDeposit,Principal) VALUES ('OrgVip01','0','0');</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>305</v>
       </c>
@@ -21154,7 +21548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A77" t="str">
         <f>CONCATENATE("'",A76,"'",",")</f>
         <v>'OrgVip02',</v>
@@ -21172,7 +21566,7 @@
         <v>INSERT INTO CustBalance (UserId, FirstDeposit,Principal) VALUES ('OrgVip02','0','0');</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -21183,7 +21577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A80" t="str">
         <f>CONCATENATE("'",A79,"'",",")</f>
         <v>'OrgVip03',</v>
@@ -21201,7 +21595,7 @@
         <v>INSERT INTO CustBalance (UserId, FirstDeposit,Principal) VALUES ('OrgVip03','0','0');</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>335</v>
       </c>
@@ -21212,7 +21606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A83" t="str">
         <f>CONCATENATE("'",A82,"'",",")</f>
         <v>'OrgTest02',</v>
@@ -21230,12 +21624,12 @@
         <v>INSERT INTO CustBalance (UserId, FirstDeposit,Principal) VALUES ('OrgTest02','0','0');</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A86" s="12" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="87" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>337</v>
       </c>
@@ -21250,7 +21644,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES (</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>295</v>
       </c>
@@ -21261,7 +21655,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A90" t="str">
         <f>CONCATENATE("'",A89,"'",",")</f>
         <v>'OrgTest01',</v>
@@ -21279,7 +21673,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgTest01','OverNight','Y');</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>295</v>
       </c>
@@ -21290,7 +21684,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A93" t="str">
         <f>CONCATENATE("'",A92,"'",",")</f>
         <v>'OrgTest01',</v>
@@ -21308,7 +21702,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgTest01','ProfitInvestActive','N');</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>295</v>
       </c>
@@ -21319,7 +21713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A96" t="str">
         <f>CONCATENATE("'",A95,"'",",")</f>
         <v>'OrgTest01',</v>
@@ -21337,7 +21731,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgTest01','LossCutPcnt','20');</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>295</v>
       </c>
@@ -21348,7 +21742,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A99" t="str">
         <f>CONCATENATE("'",A98,"'",",")</f>
         <v>'OrgTest01',</v>
@@ -21366,7 +21760,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgTest01','ReturnTypeOfShortOrder','0001');</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>295</v>
       </c>
@@ -21377,7 +21771,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A102" t="str">
         <f>CONCATENATE("'",A101,"'",",")</f>
         <v>'OrgTest01',</v>
@@ -21395,7 +21789,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgTest01','CloseTypeOfOverNightBeyond','0001');</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>335</v>
       </c>
@@ -21406,7 +21800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A105" t="str">
         <f>CONCATENATE("'",A104,"'",",")</f>
         <v>'OrgTest02',</v>
@@ -21424,7 +21818,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgTest02','OverNight','Y');</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>335</v>
       </c>
@@ -21435,7 +21829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A108" t="str">
         <f>CONCATENATE("'",A107,"'",",")</f>
         <v>'OrgTest02',</v>
@@ -21453,7 +21847,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgTest02','ProfitInvestActive','N');</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>335</v>
       </c>
@@ -21464,7 +21858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A111" t="str">
         <f>CONCATENATE("'",A110,"'",",")</f>
         <v>'OrgTest02',</v>
@@ -21482,7 +21876,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgTest02','LossCutPcnt','20');</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>335</v>
       </c>
@@ -21493,7 +21887,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A114" t="str">
         <f>CONCATENATE("'",A113,"'",",")</f>
         <v>'OrgTest02',</v>
@@ -21511,7 +21905,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgTest02','ReturnTypeOfShortOrder','0001');</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>335</v>
       </c>
@@ -21522,7 +21916,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A117" t="str">
         <f>CONCATENATE("'",A116,"'",",")</f>
         <v>'OrgTest02',</v>
@@ -21540,7 +21934,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgTest02','CloseTypeOfOverNightBeyond','0001');</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>307</v>
       </c>
@@ -21551,7 +21945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A120" t="str">
         <f>CONCATENATE("'",A119,"'",",")</f>
         <v>'OrgVip01',</v>
@@ -21569,7 +21963,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgVip01','OverNight','Y');</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>307</v>
       </c>
@@ -21580,7 +21974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A123" t="str">
         <f>CONCATENATE("'",A122,"'",",")</f>
         <v>'OrgVip01',</v>
@@ -21598,7 +21992,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgVip01','ProfitInvestActive','N');</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>307</v>
       </c>
@@ -21609,7 +22003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A126" t="str">
         <f>CONCATENATE("'",A125,"'",",")</f>
         <v>'OrgVip01',</v>
@@ -21627,7 +22021,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgVip01','LossCutPcnt','20');</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>307</v>
       </c>
@@ -21638,7 +22032,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A129" t="str">
         <f>CONCATENATE("'",A128,"'",",")</f>
         <v>'OrgVip01',</v>
@@ -21656,7 +22050,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgVip01','ReturnTypeOfShortOrder','0001');</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>307</v>
       </c>
@@ -21667,7 +22061,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A132" t="str">
         <f>CONCATENATE("'",A131,"'",",")</f>
         <v>'OrgVip01',</v>
@@ -21685,7 +22079,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgVip01','CloseTypeOfOverNightBeyond','0001');</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>305</v>
       </c>
@@ -21696,7 +22090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A135" t="str">
         <f>CONCATENATE("'",A134,"'",",")</f>
         <v>'OrgVip02',</v>
@@ -21714,7 +22108,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgVip02','OverNight','Y');</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>305</v>
       </c>
@@ -21725,7 +22119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A138" t="str">
         <f>CONCATENATE("'",A137,"'",",")</f>
         <v>'OrgVip02',</v>
@@ -21743,7 +22137,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgVip02','ProfitInvestActive','N');</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>305</v>
       </c>
@@ -21754,7 +22148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A141" t="str">
         <f>CONCATENATE("'",A140,"'",",")</f>
         <v>'OrgVip02',</v>
@@ -21772,7 +22166,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgVip02','LossCutPcnt','20');</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>305</v>
       </c>
@@ -21783,7 +22177,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A144" t="str">
         <f>CONCATENATE("'",A143,"'",",")</f>
         <v>'OrgVip02',</v>
@@ -21801,7 +22195,7 @@
         <v>INSERT INTO CustSetting (UserId, ConfigName,ConfigValue) VALUES ('OrgVip02','ReturnTypeOfShortOrder','0001');</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>305</v>
       </c>
@@ -21812,7 +22206,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A147" t="str">
         <f>CONCATENATE("'",A146,"'",",")</f>
         <v>'OrgVip02',</v>
@@ -21845,26 +22239,26 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="24" width="1.625" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="24" width="1.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>349</v>
       </c>
@@ -21888,7 +22282,7 @@
         <v>INSERT INTO EventInfo (EventId,StartDate,EndDate,Active,EventType,Content) VALUES (</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -21909,7 +22303,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f>CONCATENATE("'",A4,"'",",")</f>
         <v>'1',</v>
@@ -21940,7 +22334,7 @@
         <v>INSERT INTO EventInfo (EventId,StartDate,EndDate,Active,EventType,Content) VALUES ('1',to_date('2018-12-11','YYYY-MM-DD'),to_date('2019-1-14','YYYY-MM-DD'),'Y','0001','수수료 할인인(TradeFeeRate,MgmtFeeRate,CloseFeeRate,LossCutFee)');</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -21961,7 +22355,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f>CONCATENATE("'",A7,"'",",")</f>
         <v>'2',</v>
@@ -21992,7 +22386,7 @@
         <v>INSERT INTO EventInfo (EventId,StartDate,EndDate,Active,EventType,Content) VALUES ('2',to_date('2018-12-11','YYYY-MM-DD'),to_date('2022-1-11','YYYY-MM-DD'),'Y','0002','고객 첫 충전 Bunos(BunosRate,BonusCntPerMonth,,BonusMaxMoney)');</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>3</v>
       </c>
@@ -22013,7 +22407,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f>CONCATENATE("'",A10,"'",",")</f>
         <v>'3',</v>
@@ -22044,16 +22438,16 @@
         <v>INSERT INTO EventInfo (EventId,StartDate,EndDate,Active,EventType,Content) VALUES ('3',to_date('2018-12-11','YYYY-MM-DD'),to_date('2019-1-11','YYYY-MM-DD'),'Y','0003',' 2018-12-1 ~ 2019-1-11 월 충전 Bunos , 2회,Max 40000(BunosRate,BonusCntPerMonth,BonusMaxMoney)');</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>349</v>
       </c>
@@ -22083,7 +22477,7 @@
         <v>INSERT INTO EventDetail (EventId,A,B,C,D,E,F,Memo) VALUES (</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -22102,7 +22496,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f t="shared" ref="A17:G17" si="0">CONCATENATE("'",A16,"'",",")</f>
         <v>'1',</v>
@@ -22140,7 +22534,7 @@
         <v>INSERT INTO EventDetail (EventId,A,B,C,D,E,F,Memo) VALUES ('1','0.5','0.14','0.05','0.05','','','');</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -22157,7 +22551,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <f t="shared" ref="A20:G20" si="1">CONCATENATE("'",A19,"'",",")</f>
         <v>'2',</v>
@@ -22195,7 +22589,7 @@
         <v>INSERT INTO EventDetail (EventId,A,B,C,D,E,F,Memo) VALUES ('2','0.5','1','20000','','','','');</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>3</v>
       </c>
@@ -22212,7 +22606,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <f t="shared" ref="A23:G23" si="2">CONCATENATE("'",A22,"'",",")</f>
         <v>'3',</v>
@@ -22250,12 +22644,12 @@
         <v>INSERT INTO EventDetail (EventId,A,B,C,D,E,F,Memo) VALUES ('3','0.5','2','40000','','','','');</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>349</v>
       </c>
@@ -22279,7 +22673,7 @@
         <v>INSERT INTO CustEvent (EventId,UserId,StartDate,EndDate,Used,UpdateDate) VALUES (</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3</v>
       </c>
@@ -22300,7 +22694,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f>CONCATENATE("'",A30,"'",",")</f>
         <v>'3',</v>
@@ -22345,25 +22739,25 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="24" width="1.625" customWidth="1"/>
+    <col min="9" max="24" width="1.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>404</v>
       </c>
@@ -22393,7 +22787,7 @@
         <v>INSERT INTO CustBankInfo (BankId,UserId,BankName,AccountNo,AccountName,CreateTime,Active,BankOwner) VALUES (</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -22435,7 +22829,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f>CONCATENATE("'",A4,"'",",")</f>
         <v>'1',</v>
@@ -22473,7 +22867,7 @@
         <v>INSERT INTO CustBankInfo (BankId,UserId,BankName,AccountNo,AccountName,CreateTime,Active,BankOwner) VALUES ('1','OrgTest01','하나은행','64920000345672201','홍길동1',to_date('2018-12-17','YYYY-MM-DD'),'N','0001');</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -22515,7 +22909,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f>CONCATENATE("'",A7,"'",",")</f>
         <v>'2',</v>
@@ -22553,7 +22947,7 @@
         <v>INSERT INTO CustBankInfo (BankId,UserId,BankName,AccountNo,AccountName,CreateTime,Active,BankOwner) VALUES ('2','OrgTest01','하나은행','44440000345672202','홍길동1',to_date('2018-12-17','YYYY-MM-DD'),'Y','0001');</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>86</v>
       </c>
@@ -22595,7 +22989,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f>CONCATENATE("'",A10,"'",",")</f>
         <v>'3',</v>
@@ -22633,7 +23027,7 @@
         <v>INSERT INTO CustBankInfo (BankId,UserId,BankName,AccountNo,AccountName,CreateTime,Active,BankOwner) VALUES ('3','OrgTest02','하나은행','64920000345672203','홍길동3',to_date('2018-12-17','YYYY-MM-DD'),'Y','0001');</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>415</v>
       </c>
@@ -22675,7 +23069,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f>CONCATENATE("'",A13,"'",",")</f>
         <v>'4',</v>
@@ -22713,7 +23107,7 @@
         <v>INSERT INTO CustBankInfo (BankId,UserId,BankName,AccountNo,AccountName,CreateTime,Active,BankOwner) VALUES ('4','OrgManager01','하나은행','64920000345672206','홍길동4',to_date('2018-12-17','YYYY-MM-DD'),'Y','0002');</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>261</v>
       </c>
@@ -22755,7 +23149,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f>CONCATENATE("'",A16,"'",",")</f>
         <v>'5',</v>
@@ -22793,7 +23187,7 @@
         <v>INSERT INTO CustBankInfo (BankId,UserId,BankName,AccountNo,AccountName,CreateTime,Active,BankOwner) VALUES ('5','OrgVip02','하나은행','64920000345672206','홍길동5',to_date('2018-12-17','YYYY-MM-DD'),'Y','0001');</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>563</v>
       </c>
@@ -22835,7 +23229,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <f>CONCATENATE("'",A19,"'",",")</f>
         <v>'6',</v>
